--- a/Draft_Pick_Spreadsheets/MockDraftFP_Round_1.xlsx
+++ b/Draft_Pick_Spreadsheets/MockDraftFP_Round_1.xlsx
@@ -34,19 +34,43 @@
     <t>Christian Yelich</t>
   </si>
   <si>
+    <t>Cody Bellinger</t>
+  </si>
+  <si>
+    <t>1B/OF</t>
+  </si>
+  <si>
+    <t>Mookie Betts</t>
+  </si>
+  <si>
     <t>Gerrit Cole</t>
   </si>
   <si>
     <t>SP</t>
   </si>
   <si>
-    <t>Cody Bellinger</t>
-  </si>
-  <si>
-    <t>1B/OF</t>
-  </si>
-  <si>
-    <t>Mookie Betts</t>
+    <t>Juan Soto</t>
+  </si>
+  <si>
+    <t>Jacob deGrom</t>
+  </si>
+  <si>
+    <t>Trevor Story</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Francisco Lindor</t>
+  </si>
+  <si>
+    <t>Nolan Arenado</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>Trea Turner</t>
   </si>
   <si>
     <t>Freddie Freeman</t>
@@ -55,250 +79,349 @@
     <t>1B</t>
   </si>
   <si>
-    <t>Francisco Lindor</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>Jacob deGrom</t>
+    <t>Justin Verlander</t>
+  </si>
+  <si>
+    <t>Alex Bregman</t>
+  </si>
+  <si>
+    <t>3B/SS</t>
+  </si>
+  <si>
+    <t>Max Scherzer</t>
+  </si>
+  <si>
+    <t>J.D. Martinez</t>
   </si>
   <si>
     <t>Walker Buehler</t>
   </si>
   <si>
-    <t>Nolan Arenado</t>
-  </si>
-  <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>Trea Turner</t>
-  </si>
-  <si>
-    <t>Juan Soto</t>
-  </si>
-  <si>
-    <t>Alex Bregman</t>
-  </si>
-  <si>
-    <t>3B/SS</t>
-  </si>
-  <si>
-    <t>Max Scherzer</t>
-  </si>
-  <si>
-    <t>Justin Verlander</t>
-  </si>
-  <si>
-    <t>Trevor Story</t>
-  </si>
-  <si>
-    <t>J.D. Martinez</t>
+    <t>Jack Flaherty</t>
+  </si>
+  <si>
+    <t>Fernando Tatis</t>
+  </si>
+  <si>
+    <t>Stephen Strasburg</t>
+  </si>
+  <si>
+    <t>Rafael Devers</t>
+  </si>
+  <si>
+    <t>José Ramírez</t>
+  </si>
+  <si>
+    <t>Bryce Harper</t>
   </si>
   <si>
     <t>Anthony Rendon</t>
   </si>
   <si>
-    <t>José Ramírez</t>
-  </si>
-  <si>
-    <t>Fernando Tatis</t>
-  </si>
-  <si>
-    <t>Jack Flaherty</t>
-  </si>
-  <si>
-    <t>Stephen Strasburg</t>
-  </si>
-  <si>
-    <t>Bryce Harper</t>
-  </si>
-  <si>
-    <t>Rafael Devers</t>
-  </si>
-  <si>
     <t>Pete Alonso</t>
   </si>
   <si>
+    <t>Yordan Alvarez</t>
+  </si>
+  <si>
+    <t>Shane Bieber</t>
+  </si>
+  <si>
+    <t>Starling Marte</t>
+  </si>
+  <si>
+    <t>Ketel Marte</t>
+  </si>
+  <si>
+    <t>2B/SS/OF</t>
+  </si>
+  <si>
+    <t>Clayton Kershaw</t>
+  </si>
+  <si>
+    <t>Jose Altuve</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>Charlie Blackmon</t>
+  </si>
+  <si>
     <t>Gleyber Torres</t>
   </si>
   <si>
     <t>2B/SS</t>
   </si>
   <si>
-    <t>Shane Bieber</t>
+    <t>Javier Báez</t>
+  </si>
+  <si>
+    <t>Ozzie Albies</t>
+  </si>
+  <si>
+    <t>Charlie Morton</t>
+  </si>
+  <si>
+    <t>Blake Snell</t>
+  </si>
+  <si>
+    <t>Mike Clevinger</t>
+  </si>
+  <si>
+    <t>Eloy Jiménez</t>
+  </si>
+  <si>
+    <t>George Springer</t>
+  </si>
+  <si>
+    <t>Xander Bogaerts</t>
+  </si>
+  <si>
+    <t>Whit Merrifield</t>
+  </si>
+  <si>
+    <t>2B/OF</t>
+  </si>
+  <si>
+    <t>Patrick Corbin</t>
+  </si>
+  <si>
+    <t>Kris Bryant</t>
+  </si>
+  <si>
+    <t>3B/OF</t>
+  </si>
+  <si>
+    <t>Giancarlo Stanton</t>
+  </si>
+  <si>
+    <t>Luis Castillo</t>
+  </si>
+  <si>
+    <t>Aaron Nola</t>
+  </si>
+  <si>
+    <t>Matt Olson</t>
+  </si>
+  <si>
+    <t>Aaron Judge</t>
   </si>
   <si>
     <t>Adalberto Mondesi</t>
   </si>
   <si>
+    <t>Zack Greinke</t>
+  </si>
+  <si>
+    <t>Jonathan Villar</t>
+  </si>
+  <si>
+    <t>Eduardo Escobar</t>
+  </si>
+  <si>
+    <t>2B/3B</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
+    <t>J.T. Realmuto</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Marcell Ozuna</t>
+  </si>
+  <si>
+    <t>Austin Meadows</t>
+  </si>
+  <si>
+    <t>Josh Hader</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>Chris Paddack</t>
+  </si>
+  <si>
+    <t>Noah Syndergaard</t>
+  </si>
+  <si>
+    <t>Paul Goldschmidt</t>
+  </si>
+  <si>
+    <t>Lucas Giolito</t>
+  </si>
+  <si>
+    <t>Manny Machado</t>
+  </si>
+  <si>
+    <t>Kirby Yates</t>
+  </si>
+  <si>
+    <t>Joey Gallo</t>
+  </si>
+  <si>
     <t>Yoán Moncada</t>
   </si>
   <si>
-    <t>Yordan Alvarez</t>
-  </si>
-  <si>
-    <t>Patrick Corbin</t>
-  </si>
-  <si>
-    <t>George Springer</t>
-  </si>
-  <si>
-    <t>Clayton Kershaw</t>
-  </si>
-  <si>
-    <t>Jose Altuve</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>Starling Marte</t>
-  </si>
-  <si>
-    <t>Mike Clevinger</t>
-  </si>
-  <si>
-    <t>Charlie Blackmon</t>
+    <t>DJ LeMahieu</t>
+  </si>
+  <si>
+    <t>1B/2B/3B</t>
+  </si>
+  <si>
+    <t>Keston Hiura</t>
+  </si>
+  <si>
+    <t>Tyler Glasnow</t>
+  </si>
+  <si>
+    <t>Yu Darvish</t>
+  </si>
+  <si>
+    <t>José Berríos</t>
+  </si>
+  <si>
+    <t>Vladimir Guerrero</t>
+  </si>
+  <si>
+    <t>Bo Bichette</t>
+  </si>
+  <si>
+    <t>Eugenio Suárez</t>
+  </si>
+  <si>
+    <t>Max Muncy</t>
+  </si>
+  <si>
+    <t>Aroldis Chapman</t>
+  </si>
+  <si>
+    <t>Tommy Pham</t>
+  </si>
+  <si>
+    <t>Josh Bell</t>
+  </si>
+  <si>
+    <t>Nelson Cruz</t>
+  </si>
+  <si>
+    <t>Util</t>
+  </si>
+  <si>
+    <t>Corey Kluber</t>
   </si>
   <si>
     <t>Victor Robles</t>
   </si>
   <si>
-    <t>Kris Bryant</t>
-  </si>
-  <si>
-    <t>3B/OF</t>
-  </si>
-  <si>
-    <t>Luis Castillo</t>
-  </si>
-  <si>
-    <t>Blake Snell</t>
-  </si>
-  <si>
-    <t>Ketel Marte</t>
-  </si>
-  <si>
-    <t>2B/SS/OF</t>
-  </si>
-  <si>
-    <t>Whit Merrifield</t>
-  </si>
-  <si>
-    <t>2B/OF</t>
-  </si>
-  <si>
-    <t>Zack Greinke</t>
-  </si>
-  <si>
-    <t>Javier Báez</t>
-  </si>
-  <si>
-    <t>Xander Bogaerts</t>
-  </si>
-  <si>
-    <t>Anthony Rizzo</t>
-  </si>
-  <si>
-    <t>Ozzie Albies</t>
-  </si>
-  <si>
-    <t>Aaron Judge</t>
-  </si>
-  <si>
-    <t>Austin Meadows</t>
-  </si>
-  <si>
-    <t>Aaron Nola</t>
-  </si>
-  <si>
-    <t>Josh Hader</t>
-  </si>
-  <si>
-    <t>RP</t>
-  </si>
-  <si>
-    <t>Eduardo Escobar</t>
-  </si>
-  <si>
-    <t>2B/3B</t>
-  </si>
-  <si>
-    <t>Giancarlo Stanton</t>
-  </si>
-  <si>
-    <t>Matt Olson</t>
-  </si>
-  <si>
-    <t>Marcell Ozuna</t>
-  </si>
-  <si>
-    <t>Vladimir Guerrero</t>
-  </si>
-  <si>
-    <t>J.T. Realmuto</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Jonathan Villar</t>
-  </si>
-  <si>
-    <t>Lucas Giolito</t>
-  </si>
-  <si>
-    <t>Kirby Yates</t>
-  </si>
-  <si>
-    <t>Chris Paddack</t>
-  </si>
-  <si>
-    <t>Eloy Jiménez</t>
-  </si>
-  <si>
-    <t>Charlie Morton</t>
-  </si>
-  <si>
-    <t>Manny Machado</t>
-  </si>
-  <si>
-    <t>Tommy Pham</t>
+    <t>Roberto Osuna</t>
+  </si>
+  <si>
+    <t>Marcus Semien</t>
+  </si>
+  <si>
+    <t>Trevor Bauer</t>
+  </si>
+  <si>
+    <t>Gary Sánchez</t>
+  </si>
+  <si>
+    <t>José Abreu</t>
+  </si>
+  <si>
+    <t>Brandon Woodruff</t>
+  </si>
+  <si>
+    <t>Eddie Rosario</t>
+  </si>
+  <si>
+    <t>Nick Castellanos</t>
+  </si>
+  <si>
+    <t>Michael Conforto</t>
+  </si>
+  <si>
+    <t>Jorge Soler</t>
+  </si>
+  <si>
+    <t>Carlos Correa</t>
+  </si>
+  <si>
+    <t>Luis Robert</t>
+  </si>
+  <si>
+    <t>Jeff McNeil</t>
+  </si>
+  <si>
+    <t>2B/3B/OF</t>
+  </si>
+  <si>
+    <t>Mike Soroka</t>
+  </si>
+  <si>
+    <t>Matt Chapman</t>
+  </si>
+  <si>
+    <t>Josh Donaldson</t>
   </si>
   <si>
     <t>Rhys Hoskins</t>
   </si>
   <si>
-    <t>Keston Hiura</t>
-  </si>
-  <si>
-    <t>Paul Goldschmidt</t>
-  </si>
-  <si>
-    <t>DJ LeMahieu</t>
-  </si>
-  <si>
-    <t>1B/2B/3B</t>
-  </si>
-  <si>
-    <t>Aroldis Chapman</t>
-  </si>
-  <si>
-    <t>Josh Bell</t>
-  </si>
-  <si>
-    <t>Noah Syndergaard</t>
-  </si>
-  <si>
-    <t>Yu Darvish</t>
-  </si>
-  <si>
-    <t>Eugenio Suárez</t>
-  </si>
-  <si>
-    <t>Bo Bichette</t>
+    <t>Willson Contreras</t>
+  </si>
+  <si>
+    <t>Sonny Gray</t>
+  </si>
+  <si>
+    <t>Shohei Ohtani</t>
+  </si>
+  <si>
+    <t>Trey Mancini</t>
+  </si>
+  <si>
+    <t>Mike Moustakas</t>
+  </si>
+  <si>
+    <t>Ramón Laureano</t>
+  </si>
+  <si>
+    <t>Yasmani Grandal</t>
+  </si>
+  <si>
+    <t>C/1B</t>
+  </si>
+  <si>
+    <t>Tim Anderson</t>
+  </si>
+  <si>
+    <t>Jorge Polanco</t>
+  </si>
+  <si>
+    <t>Kenley Jansen</t>
+  </si>
+  <si>
+    <t>Brad Hand</t>
+  </si>
+  <si>
+    <t>Liam Hendriks</t>
+  </si>
+  <si>
+    <t>Danny Santana</t>
+  </si>
+  <si>
+    <t>1B/2B/3B/SS/OF</t>
+  </si>
+  <si>
+    <t>Carlos Santana</t>
+  </si>
+  <si>
+    <t>Michael Brantley</t>
   </si>
   <si>
     <t>Drew Pomeranz</t>
@@ -307,456 +430,336 @@
     <t>SP/RP</t>
   </si>
   <si>
-    <t>Nelson Cruz</t>
-  </si>
-  <si>
-    <t>Util</t>
-  </si>
-  <si>
-    <t>José Berríos</t>
-  </si>
-  <si>
-    <t>Eddie Rosario</t>
-  </si>
-  <si>
-    <t>Tyler Glasnow</t>
-  </si>
-  <si>
-    <t>José Abreu</t>
-  </si>
-  <si>
-    <t>Max Muncy</t>
-  </si>
-  <si>
-    <t>Gary Sánchez</t>
-  </si>
-  <si>
-    <t>Marcus Semien</t>
-  </si>
-  <si>
-    <t>Brandon Woodruff</t>
-  </si>
-  <si>
-    <t>Roberto Osuna</t>
-  </si>
-  <si>
-    <t>Trevor Bauer</t>
-  </si>
-  <si>
-    <t>Joey Gallo</t>
-  </si>
-  <si>
-    <t>Jeff McNeil</t>
-  </si>
-  <si>
-    <t>2B/3B/OF</t>
-  </si>
-  <si>
-    <t>Luis Robert</t>
-  </si>
-  <si>
-    <t>Corey Kluber</t>
-  </si>
-  <si>
-    <t>Jorge Soler</t>
-  </si>
-  <si>
-    <t>Josh Donaldson</t>
-  </si>
-  <si>
-    <t>Nick Castellanos</t>
-  </si>
-  <si>
-    <t>Matt Chapman</t>
-  </si>
-  <si>
-    <t>Mike Soroka</t>
-  </si>
-  <si>
-    <t>Tim Anderson</t>
-  </si>
-  <si>
-    <t>Sonny Gray</t>
-  </si>
-  <si>
-    <t>Ramón Laureano</t>
-  </si>
-  <si>
-    <t>Michael Conforto</t>
+    <t>Franmil Reyes</t>
+  </si>
+  <si>
+    <t>Miguel Sanó</t>
+  </si>
+  <si>
+    <t>1B/3B</t>
+  </si>
+  <si>
+    <t>Luis Arraez</t>
+  </si>
+  <si>
+    <t>Jesús Luzardo</t>
+  </si>
+  <si>
+    <t>Carlos Carrasco</t>
+  </si>
+  <si>
+    <t>Bryan Reynolds</t>
+  </si>
+  <si>
+    <t>Chris Sale</t>
+  </si>
+  <si>
+    <t>Frankie Montas</t>
+  </si>
+  <si>
+    <t>Oscar Mercado</t>
+  </si>
+  <si>
+    <t>Madison Bumgarner</t>
+  </si>
+  <si>
+    <t>Taylor Rogers</t>
+  </si>
+  <si>
+    <t>Zack Wheeler</t>
+  </si>
+  <si>
+    <t>Seth Lugo</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
+    <t>Eduardo Rodriguez</t>
+  </si>
+  <si>
+    <t>Andrew Benintendi</t>
+  </si>
+  <si>
+    <t>Edwin Díaz</t>
+  </si>
+  <si>
+    <t>Hyun-Jin Ryu</t>
+  </si>
+  <si>
+    <t>Zac Gallen</t>
+  </si>
+  <si>
+    <t>Mitch Garver</t>
+  </si>
+  <si>
+    <t>Lance Lynn</t>
+  </si>
+  <si>
+    <t>Max Kepler</t>
+  </si>
+  <si>
+    <t>Mallex Smith</t>
+  </si>
+  <si>
+    <t>Max Fried</t>
+  </si>
+  <si>
+    <t>Dinelson Lamet</t>
+  </si>
+  <si>
+    <t>Yuli Gurriel</t>
+  </si>
+  <si>
+    <t>José Iglesias</t>
+  </si>
+  <si>
+    <t>Brandon Workman</t>
+  </si>
+  <si>
+    <t>Ken Giles</t>
+  </si>
+  <si>
+    <t>Corey Seager</t>
+  </si>
+  <si>
+    <t>Cavan Biggio</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
+    <t>Craig Kimbrel</t>
+  </si>
+  <si>
+    <t>Héctor Neris</t>
+  </si>
+  <si>
+    <t>Mike Minor</t>
+  </si>
+  <si>
+    <t>Robbie Ray</t>
+  </si>
+  <si>
+    <t>Elvis Andrus</t>
+  </si>
+  <si>
+    <t>Keone Kela</t>
+  </si>
+  <si>
+    <t>Tommy Edman</t>
+  </si>
+  <si>
+    <t>Kyle Schwarber</t>
+  </si>
+  <si>
+    <t>Kenta Maeda</t>
+  </si>
+  <si>
+    <t>David Dahl</t>
+  </si>
+  <si>
+    <t>Marcus Stroman</t>
+  </si>
+  <si>
+    <t>Julio Urías</t>
+  </si>
+  <si>
+    <t>Nick Anderson</t>
+  </si>
+  <si>
+    <t>Gavin Lux</t>
+  </si>
+  <si>
+    <t>James Paxton</t>
+  </si>
+  <si>
+    <t>Amed Rosario</t>
+  </si>
+  <si>
+    <t>Will Harris</t>
+  </si>
+  <si>
+    <t>Justin Turner</t>
+  </si>
+  <si>
+    <t>David Price</t>
+  </si>
+  <si>
+    <t>Hansel Robles</t>
+  </si>
+  <si>
+    <t>Matthew Boyd</t>
+  </si>
+  <si>
+    <t>Buster Posey</t>
+  </si>
+  <si>
+    <t>Archie Bradley</t>
+  </si>
+  <si>
+    <t>Wilson Ramos</t>
+  </si>
+  <si>
+    <t>Alex Colomé</t>
+  </si>
+  <si>
+    <t>Salvador Perez</t>
+  </si>
+  <si>
+    <t>German Márquez</t>
+  </si>
+  <si>
+    <t>Mike Foltynewicz</t>
+  </si>
+  <si>
+    <t>Nate Pearson</t>
+  </si>
+  <si>
+    <t>José Leclerc</t>
+  </si>
+  <si>
+    <t>Carlos Martínez</t>
+  </si>
+  <si>
+    <t>Joe Musgrove</t>
+  </si>
+  <si>
+    <t>Sean Manaea</t>
+  </si>
+  <si>
+    <t>Nathan Eovaldi</t>
+  </si>
+  <si>
+    <t>Carson Kelly</t>
+  </si>
+  <si>
+    <t>Giovanny Gallegos</t>
+  </si>
+  <si>
+    <t>Jorge Alfaro</t>
+  </si>
+  <si>
+    <t>Omar Narváez</t>
+  </si>
+  <si>
+    <t>Ian Kennedy</t>
+  </si>
+  <si>
+    <t>Sean Doolittle</t>
+  </si>
+  <si>
+    <t>Yasiel Puig</t>
+  </si>
+  <si>
+    <t>Christian Vázquez</t>
+  </si>
+  <si>
+    <t>Tom Murphy</t>
+  </si>
+  <si>
+    <t>Lourdes Gurriel</t>
+  </si>
+  <si>
+    <t>Masahiro Tanaka</t>
+  </si>
+  <si>
+    <t>Adam Eaton</t>
+  </si>
+  <si>
+    <t>Edwin Encarnación</t>
+  </si>
+  <si>
+    <t>Lorenzo Cain</t>
+  </si>
+  <si>
+    <t>Paul DeJong</t>
+  </si>
+  <si>
+    <t>Byron Buxton</t>
+  </si>
+  <si>
+    <t>Khris Davis</t>
+  </si>
+  <si>
+    <t>Tyler Duffey</t>
+  </si>
+  <si>
+    <t>Adam Ottavino</t>
+  </si>
+  <si>
+    <t>Emilio Pagán</t>
+  </si>
+  <si>
+    <t>Hunter Dozier</t>
+  </si>
+  <si>
+    <t>1B/3B/OF</t>
+  </si>
+  <si>
+    <t>Zack Britton</t>
+  </si>
+  <si>
+    <t>Yusmeiro Petit</t>
+  </si>
+  <si>
+    <t>Ryan Pressly</t>
+  </si>
+  <si>
+    <t>Rafael Montero</t>
+  </si>
+  <si>
+    <t>Scott Oberg</t>
+  </si>
+  <si>
+    <t>Pedro Báez</t>
+  </si>
+  <si>
+    <t>Roenis Elías</t>
+  </si>
+  <si>
+    <t>Shogo Akiyama</t>
+  </si>
+  <si>
+    <t>Adam Kolarek</t>
+  </si>
+  <si>
+    <t>Tony Watson</t>
+  </si>
+  <si>
+    <t>Luis Severino</t>
+  </si>
+  <si>
+    <t>John Brebbia</t>
+  </si>
+  <si>
+    <t>Brandon Kintzler</t>
+  </si>
+  <si>
+    <t>Nick Wittgren</t>
+  </si>
+  <si>
+    <t>Tommy Kahnle</t>
+  </si>
+  <si>
+    <t>Justin Wilson</t>
+  </si>
+  <si>
+    <t>Chris Martin</t>
+  </si>
+  <si>
+    <t>Colin Poche</t>
+  </si>
+  <si>
+    <t>Daniel Hudson</t>
+  </si>
+  <si>
+    <t>Andres Muñoz</t>
   </si>
   <si>
     <t>Diego Castillo</t>
   </si>
   <si>
-    <t>Mike Moustakas</t>
-  </si>
-  <si>
-    <t>Franmil Reyes</t>
-  </si>
-  <si>
-    <t>Miguel Sanó</t>
-  </si>
-  <si>
-    <t>1B/3B</t>
-  </si>
-  <si>
-    <t>Michael Brantley</t>
-  </si>
-  <si>
-    <t>Yasmani Grandal</t>
-  </si>
-  <si>
-    <t>C/1B</t>
-  </si>
-  <si>
-    <t>Carlos Correa</t>
-  </si>
-  <si>
-    <t>Jorge Polanco</t>
-  </si>
-  <si>
-    <t>Luis Arraez</t>
-  </si>
-  <si>
-    <t>Liam Hendriks</t>
-  </si>
-  <si>
-    <t>Jesús Luzardo</t>
-  </si>
-  <si>
-    <t>Carlos Carrasco</t>
-  </si>
-  <si>
-    <t>Kenley Jansen</t>
-  </si>
-  <si>
-    <t>Bryan Reynolds</t>
-  </si>
-  <si>
-    <t>Chris Sale</t>
-  </si>
-  <si>
-    <t>Frankie Montas</t>
-  </si>
-  <si>
-    <t>Oscar Mercado</t>
-  </si>
-  <si>
-    <t>Willson Contreras</t>
-  </si>
-  <si>
-    <t>Madison Bumgarner</t>
-  </si>
-  <si>
-    <t>Taylor Rogers</t>
-  </si>
-  <si>
-    <t>Zack Wheeler</t>
-  </si>
-  <si>
-    <t>Seth Lugo</t>
-  </si>
-  <si>
-    <t>Brad Hand</t>
-  </si>
-  <si>
-    <t>Kyle Hendricks</t>
-  </si>
-  <si>
-    <t>Eduardo Rodriguez</t>
-  </si>
-  <si>
-    <t>Andrew Benintendi</t>
-  </si>
-  <si>
-    <t>Edwin Díaz</t>
-  </si>
-  <si>
-    <t>Hyun-Jin Ryu</t>
-  </si>
-  <si>
-    <t>Zac Gallen</t>
-  </si>
-  <si>
-    <t>Mitch Garver</t>
-  </si>
-  <si>
-    <t>Carlos Santana</t>
-  </si>
-  <si>
-    <t>Trey Mancini</t>
-  </si>
-  <si>
-    <t>Lance Lynn</t>
-  </si>
-  <si>
-    <t>Max Kepler</t>
-  </si>
-  <si>
-    <t>Mallex Smith</t>
-  </si>
-  <si>
-    <t>Danny Santana</t>
-  </si>
-  <si>
-    <t>1B/2B/3B/SS/OF</t>
-  </si>
-  <si>
-    <t>Max Fried</t>
-  </si>
-  <si>
-    <t>Dinelson Lamet</t>
-  </si>
-  <si>
-    <t>Yuli Gurriel</t>
-  </si>
-  <si>
-    <t>José Iglesias</t>
-  </si>
-  <si>
-    <t>Brandon Workman</t>
-  </si>
-  <si>
-    <t>Ken Giles</t>
-  </si>
-  <si>
-    <t>Corey Seager</t>
-  </si>
-  <si>
-    <t>Cavan Biggio</t>
-  </si>
-  <si>
-    <t>Will Smith</t>
-  </si>
-  <si>
-    <t>Craig Kimbrel</t>
-  </si>
-  <si>
-    <t>Héctor Neris</t>
-  </si>
-  <si>
-    <t>Mike Minor</t>
-  </si>
-  <si>
-    <t>Robbie Ray</t>
-  </si>
-  <si>
-    <t>Elvis Andrus</t>
-  </si>
-  <si>
-    <t>Keone Kela</t>
-  </si>
-  <si>
-    <t>Tommy Edman</t>
-  </si>
-  <si>
-    <t>Kyle Schwarber</t>
-  </si>
-  <si>
-    <t>Kenta Maeda</t>
-  </si>
-  <si>
-    <t>David Dahl</t>
-  </si>
-  <si>
-    <t>Marcus Stroman</t>
-  </si>
-  <si>
-    <t>Julio Urías</t>
-  </si>
-  <si>
-    <t>Nick Anderson</t>
-  </si>
-  <si>
-    <t>Gavin Lux</t>
-  </si>
-  <si>
-    <t>James Paxton</t>
-  </si>
-  <si>
-    <t>Amed Rosario</t>
-  </si>
-  <si>
-    <t>Will Harris</t>
-  </si>
-  <si>
-    <t>Justin Turner</t>
-  </si>
-  <si>
-    <t>David Price</t>
-  </si>
-  <si>
-    <t>Hansel Robles</t>
-  </si>
-  <si>
-    <t>Matthew Boyd</t>
-  </si>
-  <si>
-    <t>Buster Posey</t>
-  </si>
-  <si>
-    <t>Archie Bradley</t>
-  </si>
-  <si>
-    <t>Wilson Ramos</t>
-  </si>
-  <si>
-    <t>Alex Colomé</t>
-  </si>
-  <si>
-    <t>Salvador Perez</t>
-  </si>
-  <si>
-    <t>German Márquez</t>
-  </si>
-  <si>
-    <t>Mike Foltynewicz</t>
-  </si>
-  <si>
-    <t>Nate Pearson</t>
-  </si>
-  <si>
-    <t>José Leclerc</t>
-  </si>
-  <si>
-    <t>Carlos Martínez</t>
-  </si>
-  <si>
-    <t>Joe Musgrove</t>
-  </si>
-  <si>
-    <t>Sean Manaea</t>
-  </si>
-  <si>
-    <t>Nathan Eovaldi</t>
-  </si>
-  <si>
-    <t>Carson Kelly</t>
-  </si>
-  <si>
-    <t>Giovanny Gallegos</t>
-  </si>
-  <si>
-    <t>Jorge Alfaro</t>
-  </si>
-  <si>
-    <t>Omar Narváez</t>
-  </si>
-  <si>
-    <t>Ian Kennedy</t>
-  </si>
-  <si>
-    <t>Sean Doolittle</t>
-  </si>
-  <si>
-    <t>Yasiel Puig</t>
-  </si>
-  <si>
-    <t>Christian Vázquez</t>
-  </si>
-  <si>
-    <t>Tom Murphy</t>
-  </si>
-  <si>
-    <t>Lourdes Gurriel</t>
-  </si>
-  <si>
-    <t>Masahiro Tanaka</t>
-  </si>
-  <si>
-    <t>Adam Eaton</t>
-  </si>
-  <si>
-    <t>Edwin Encarnación</t>
-  </si>
-  <si>
-    <t>Lorenzo Cain</t>
-  </si>
-  <si>
-    <t>Paul DeJong</t>
-  </si>
-  <si>
-    <t>Byron Buxton</t>
-  </si>
-  <si>
-    <t>Khris Davis</t>
-  </si>
-  <si>
-    <t>Tyler Duffey</t>
-  </si>
-  <si>
-    <t>Adam Ottavino</t>
-  </si>
-  <si>
-    <t>Emilio Pagán</t>
-  </si>
-  <si>
-    <t>Hunter Dozier</t>
-  </si>
-  <si>
-    <t>1B/3B/OF</t>
-  </si>
-  <si>
-    <t>Zack Britton</t>
-  </si>
-  <si>
-    <t>Yusmeiro Petit</t>
-  </si>
-  <si>
-    <t>Ryan Pressly</t>
-  </si>
-  <si>
-    <t>Rafael Montero</t>
-  </si>
-  <si>
-    <t>Scott Oberg</t>
-  </si>
-  <si>
-    <t>Pedro Báez</t>
-  </si>
-  <si>
-    <t>Roenis Elías</t>
-  </si>
-  <si>
-    <t>Shogo Akiyama</t>
-  </si>
-  <si>
-    <t>Adam Kolarek</t>
-  </si>
-  <si>
-    <t>Tony Watson</t>
-  </si>
-  <si>
-    <t>Luis Severino</t>
-  </si>
-  <si>
-    <t>John Brebbia</t>
-  </si>
-  <si>
-    <t>Brandon Kintzler</t>
-  </si>
-  <si>
-    <t>Nick Wittgren</t>
-  </si>
-  <si>
-    <t>Tommy Kahnle</t>
-  </si>
-  <si>
-    <t>Justin Wilson</t>
-  </si>
-  <si>
-    <t>Chris Martin</t>
-  </si>
-  <si>
-    <t>Colin Poche</t>
-  </si>
-  <si>
-    <t>Daniel Hudson</t>
-  </si>
-  <si>
-    <t>Andres Muñoz</t>
-  </si>
-  <si>
     <t>Raisel Iglesias</t>
   </si>
   <si>
@@ -1121,9 +1124,6 @@
   </si>
   <si>
     <t>Jeurys Familia</t>
-  </si>
-  <si>
-    <t>Shohei Ohtani</t>
   </si>
   <si>
     <t>Sam Hilliard</t>
@@ -3624,16 +3624,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" t="s" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -3642,49 +3642,49 @@
         <v>12</v>
       </c>
       <c r="C8" t="s" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" t="s" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" t="s" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" t="s" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s" s="5">
         <v>18</v>
-      </c>
-      <c r="C12" t="s" s="5">
-        <v>19</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" t="s" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s" s="5">
         <v>15</v>
@@ -3693,10 +3693,10 @@
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s" s="5">
         <v>21</v>
-      </c>
-      <c r="C14" t="s" s="5">
-        <v>4</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
@@ -3705,16 +3705,16 @@
         <v>22</v>
       </c>
       <c r="C15" t="s" s="5">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s" s="5">
         <v>24</v>
-      </c>
-      <c r="C16" t="s" s="5">
-        <v>8</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
@@ -3723,7 +3723,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
@@ -3732,7 +3732,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="s" s="5">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
@@ -3741,7 +3741,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="s" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
@@ -3750,7 +3750,7 @@
         <v>28</v>
       </c>
       <c r="C20" t="s" s="5">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
@@ -3759,7 +3759,7 @@
         <v>29</v>
       </c>
       <c r="C21" t="s" s="5">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
@@ -3768,7 +3768,7 @@
         <v>30</v>
       </c>
       <c r="C22" t="s" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
@@ -3777,7 +3777,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="s" s="5">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
@@ -3786,7 +3786,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s" s="5">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
@@ -3804,7 +3804,7 @@
         <v>34</v>
       </c>
       <c r="C26" t="s" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
@@ -3813,7 +3813,7 @@
         <v>35</v>
       </c>
       <c r="C27" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
@@ -3822,34 +3822,34 @@
         <v>36</v>
       </c>
       <c r="C28" t="s" s="5">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" t="s" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" t="s" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s" s="5">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s" s="5">
         <v>40</v>
-      </c>
-      <c r="C31" t="s" s="5">
-        <v>19</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
@@ -3858,7 +3858,7 @@
         <v>41</v>
       </c>
       <c r="C32" t="s" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
@@ -3867,13 +3867,13 @@
         <v>42</v>
       </c>
       <c r="C33" t="s" s="5">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" s="12"/>
       <c r="B34" t="s" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s" s="5">
         <v>4</v>
@@ -3882,64 +3882,64 @@
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" s="12"/>
       <c r="B35" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s" s="5">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" t="s" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s" s="5">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" t="s" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s" s="5">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" s="12"/>
       <c r="B38" t="s" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" s="12"/>
       <c r="B39" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" s="12"/>
       <c r="B40" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" s="12"/>
       <c r="B41" t="s" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s" s="5">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="20.05" customHeight="1">
@@ -3948,7 +3948,7 @@
         <v>53</v>
       </c>
       <c r="C42" t="s" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="20.05" customHeight="1">
@@ -3957,7 +3957,7 @@
         <v>54</v>
       </c>
       <c r="C43" t="s" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" ht="20.05" customHeight="1">
@@ -3975,16 +3975,16 @@
         <v>57</v>
       </c>
       <c r="C45" t="s" s="5">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" s="12"/>
       <c r="B46" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s" s="5">
         <v>59</v>
-      </c>
-      <c r="C46" t="s" s="5">
-        <v>8</v>
       </c>
     </row>
     <row r="47" ht="20.05" customHeight="1">
@@ -3993,7 +3993,7 @@
         <v>60</v>
       </c>
       <c r="C47" t="s" s="5">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" ht="20.05" customHeight="1">
@@ -4002,7 +4002,7 @@
         <v>61</v>
       </c>
       <c r="C48" t="s" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="20.05" customHeight="1">
@@ -4011,7 +4011,7 @@
         <v>62</v>
       </c>
       <c r="C49" t="s" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="20.05" customHeight="1">
@@ -4020,7 +4020,7 @@
         <v>63</v>
       </c>
       <c r="C50" t="s" s="5">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="20.05" customHeight="1">
@@ -4038,7 +4038,7 @@
         <v>65</v>
       </c>
       <c r="C52" t="s" s="5">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" ht="20.05" customHeight="1">
@@ -4047,7 +4047,7 @@
         <v>66</v>
       </c>
       <c r="C53" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" ht="20.05" customHeight="1">
@@ -4056,34 +4056,34 @@
         <v>67</v>
       </c>
       <c r="C54" t="s" s="5">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" s="12"/>
       <c r="B55" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s" s="5">
         <v>69</v>
-      </c>
-      <c r="C55" t="s" s="5">
-        <v>70</v>
       </c>
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" t="s" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s" s="5">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" s="12"/>
       <c r="B57" t="s" s="4">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s" s="5">
         <v>72</v>
-      </c>
-      <c r="C57" t="s" s="5">
-        <v>13</v>
       </c>
     </row>
     <row r="58" ht="20.05" customHeight="1">
@@ -4101,7 +4101,7 @@
         <v>74</v>
       </c>
       <c r="C59" t="s" s="5">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" ht="20.05" customHeight="1">
@@ -4119,7 +4119,7 @@
         <v>77</v>
       </c>
       <c r="C61" t="s" s="5">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" ht="20.05" customHeight="1">
@@ -4128,7 +4128,7 @@
         <v>78</v>
       </c>
       <c r="C62" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" ht="20.05" customHeight="1">
@@ -4137,7 +4137,7 @@
         <v>79</v>
       </c>
       <c r="C63" t="s" s="5">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="20.05" customHeight="1">
@@ -4146,7 +4146,7 @@
         <v>80</v>
       </c>
       <c r="C64" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="20.05" customHeight="1">
@@ -4155,7 +4155,7 @@
         <v>81</v>
       </c>
       <c r="C65" t="s" s="5">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="20.05" customHeight="1">
@@ -4164,7 +4164,7 @@
         <v>82</v>
       </c>
       <c r="C66" t="s" s="5">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" ht="20.05" customHeight="1">
@@ -4173,7 +4173,7 @@
         <v>83</v>
       </c>
       <c r="C67" t="s" s="5">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="20.05" customHeight="1">
@@ -4182,7 +4182,7 @@
         <v>84</v>
       </c>
       <c r="C68" t="s" s="5">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="20.05" customHeight="1">
@@ -4191,34 +4191,34 @@
         <v>85</v>
       </c>
       <c r="C69" t="s" s="5">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" ht="20.05" customHeight="1">
       <c r="A70" s="12"/>
       <c r="B70" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C70" t="s" s="5">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" ht="20.05" customHeight="1">
       <c r="A71" s="12"/>
       <c r="B71" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C71" t="s" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" ht="20.05" customHeight="1">
       <c r="A72" s="12"/>
       <c r="B72" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s" s="5">
-        <v>89</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" ht="20.05" customHeight="1">
@@ -4227,7 +4227,7 @@
         <v>90</v>
       </c>
       <c r="C73" t="s" s="5">
-        <v>68</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" ht="20.05" customHeight="1">
@@ -4236,7 +4236,7 @@
         <v>91</v>
       </c>
       <c r="C74" t="s" s="5">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="20.05" customHeight="1">
@@ -4245,7 +4245,7 @@
         <v>92</v>
       </c>
       <c r="C75" t="s" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" ht="20.05" customHeight="1">
@@ -4254,7 +4254,7 @@
         <v>93</v>
       </c>
       <c r="C76" t="s" s="5">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="20.05" customHeight="1">
@@ -4263,7 +4263,7 @@
         <v>94</v>
       </c>
       <c r="C77" t="s" s="5">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" ht="20.05" customHeight="1">
@@ -4272,7 +4272,7 @@
         <v>95</v>
       </c>
       <c r="C78" t="s" s="5">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" ht="20.05" customHeight="1">
@@ -4281,112 +4281,112 @@
         <v>96</v>
       </c>
       <c r="C79" t="s" s="5">
-        <v>97</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" ht="20.05" customHeight="1">
       <c r="A80" s="12"/>
       <c r="B80" t="s" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" t="s" s="5">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="20.05" customHeight="1">
       <c r="A81" s="12"/>
       <c r="B81" t="s" s="4">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s" s="5">
-        <v>8</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" ht="20.05" customHeight="1">
       <c r="A82" s="12"/>
       <c r="B82" t="s" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" t="s" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" ht="20.05" customHeight="1">
       <c r="A83" s="12"/>
       <c r="B83" t="s" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83" t="s" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" ht="20.05" customHeight="1">
       <c r="A84" s="12"/>
       <c r="B84" t="s" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84" t="s" s="5">
-        <v>13</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" ht="20.05" customHeight="1">
       <c r="A85" s="12"/>
       <c r="B85" t="s" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85" t="s" s="5">
-        <v>89</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" ht="20.05" customHeight="1">
       <c r="A86" s="12"/>
       <c r="B86" t="s" s="4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C86" t="s" s="5">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="20.05" customHeight="1">
       <c r="A87" s="12"/>
       <c r="B87" t="s" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C87" t="s" s="5">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" ht="20.05" customHeight="1">
       <c r="A88" s="12"/>
       <c r="B88" t="s" s="4">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C88" t="s" s="5">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="20.05" customHeight="1">
       <c r="A89" s="12"/>
       <c r="B89" t="s" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C89" t="s" s="5">
-        <v>68</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" ht="20.05" customHeight="1">
       <c r="A90" s="12"/>
       <c r="B90" t="s" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C90" t="s" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" ht="20.05" customHeight="1">
       <c r="A91" s="12"/>
       <c r="B91" t="s" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C91" t="s" s="5">
         <v>4</v>
@@ -4395,16 +4395,16 @@
     <row r="92" ht="20.05" customHeight="1">
       <c r="A92" s="12"/>
       <c r="B92" t="s" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C92" t="s" s="5">
-        <v>112</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" ht="20.05" customHeight="1">
       <c r="A93" s="12"/>
       <c r="B93" t="s" s="4">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C93" t="s" s="5">
         <v>4</v>
@@ -4413,16 +4413,16 @@
     <row r="94" ht="20.05" customHeight="1">
       <c r="A94" s="12"/>
       <c r="B94" t="s" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C94" t="s" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" ht="20.05" customHeight="1">
       <c r="A95" s="12"/>
       <c r="B95" t="s" s="4">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C95" t="s" s="5">
         <v>4</v>
@@ -4431,79 +4431,79 @@
     <row r="96" ht="20.05" customHeight="1">
       <c r="A96" s="12"/>
       <c r="B96" t="s" s="4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C96" t="s" s="5">
-        <v>19</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" ht="20.05" customHeight="1">
       <c r="A97" s="12"/>
       <c r="B97" t="s" s="4">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C97" t="s" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" ht="20.05" customHeight="1">
       <c r="A98" s="12"/>
       <c r="B98" t="s" s="4">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C98" t="s" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="20.05" customHeight="1">
       <c r="A99" s="12"/>
       <c r="B99" t="s" s="4">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C99" t="s" s="5">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="20.05" customHeight="1">
       <c r="A100" s="12"/>
       <c r="B100" t="s" s="4">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C100" t="s" s="5">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="20.05" customHeight="1">
       <c r="A101" s="12"/>
       <c r="B101" t="s" s="4">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C101" t="s" s="5">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" ht="20.05" customHeight="1">
       <c r="A102" s="12"/>
       <c r="B102" t="s" s="4">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C102" t="s" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" ht="20.05" customHeight="1">
       <c r="A103" s="12"/>
       <c r="B103" t="s" s="4">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C103" t="s" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" ht="20.05" customHeight="1">
       <c r="A104" s="12"/>
       <c r="B104" t="s" s="4">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C104" t="s" s="5">
         <v>8</v>
@@ -4512,16 +4512,16 @@
     <row r="105" ht="20.05" customHeight="1">
       <c r="A105" s="12"/>
       <c r="B105" t="s" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C105" t="s" s="5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" ht="20.05" customHeight="1">
       <c r="A106" s="12"/>
       <c r="B106" t="s" s="4">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C106" t="s" s="5">
         <v>4</v>
@@ -4530,91 +4530,91 @@
     <row r="107" ht="20.05" customHeight="1">
       <c r="A107" s="12"/>
       <c r="B107" t="s" s="4">
+        <v>126</v>
+      </c>
+      <c r="C107" t="s" s="5">
         <v>127</v>
-      </c>
-      <c r="C107" t="s" s="5">
-        <v>128</v>
       </c>
     </row>
     <row r="108" ht="20.05" customHeight="1">
       <c r="A108" s="12"/>
       <c r="B108" t="s" s="4">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C108" t="s" s="5">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" ht="20.05" customHeight="1">
       <c r="A109" s="12"/>
       <c r="B109" t="s" s="4">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C109" t="s" s="5">
-        <v>131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" ht="20.05" customHeight="1">
       <c r="A110" s="12"/>
       <c r="B110" t="s" s="4">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C110" t="s" s="5">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" ht="20.05" customHeight="1">
       <c r="A111" s="12"/>
       <c r="B111" t="s" s="4">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C111" t="s" s="5">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="112" ht="20.05" customHeight="1">
       <c r="A112" s="12"/>
       <c r="B112" t="s" s="4">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C112" t="s" s="5">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113" ht="20.05" customHeight="1">
       <c r="A113" s="12"/>
       <c r="B113" t="s" s="4">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C113" t="s" s="5">
-        <v>68</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" ht="20.05" customHeight="1">
       <c r="A114" s="12"/>
       <c r="B114" t="s" s="4">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C114" t="s" s="5">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="20.05" customHeight="1">
       <c r="A115" s="12"/>
       <c r="B115" t="s" s="4">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C115" t="s" s="5">
-        <v>97</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" ht="20.05" customHeight="1">
       <c r="A116" s="12"/>
       <c r="B116" t="s" s="4">
+        <v>137</v>
+      </c>
+      <c r="C116" t="s" s="5">
         <v>138</v>
-      </c>
-      <c r="C116" t="s" s="5">
-        <v>68</v>
       </c>
     </row>
     <row r="117" ht="20.05" customHeight="1">
@@ -4632,139 +4632,139 @@
         <v>140</v>
       </c>
       <c r="C118" t="s" s="5">
-        <v>8</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" ht="20.05" customHeight="1">
       <c r="A119" s="12"/>
       <c r="B119" t="s" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" ht="20.05" customHeight="1">
       <c r="A120" s="12"/>
       <c r="B120" t="s" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C120" t="s" s="5">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" ht="20.05" customHeight="1">
       <c r="A121" s="12"/>
       <c r="B121" t="s" s="4">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C121" t="s" s="5">
-        <v>76</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" ht="20.05" customHeight="1">
       <c r="A122" s="12"/>
       <c r="B122" t="s" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C122" t="s" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" ht="20.05" customHeight="1">
       <c r="A123" s="12"/>
       <c r="B123" t="s" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C123" t="s" s="5">
-        <v>68</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" ht="20.05" customHeight="1">
       <c r="A124" s="12"/>
       <c r="B124" t="s" s="4">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C124" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" ht="20.05" customHeight="1">
       <c r="A125" s="12"/>
       <c r="B125" t="s" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C125" t="s" s="5">
-        <v>68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" ht="20.05" customHeight="1">
       <c r="A126" s="12"/>
       <c r="B126" t="s" s="4">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C126" t="s" s="5">
-        <v>68</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" ht="20.05" customHeight="1">
       <c r="A127" s="12"/>
       <c r="B127" t="s" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C127" t="s" s="5">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" ht="20.05" customHeight="1">
       <c r="A128" s="12"/>
       <c r="B128" t="s" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C128" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" ht="20.05" customHeight="1">
       <c r="A129" s="12"/>
       <c r="B129" t="s" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C129" t="s" s="5">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="130" ht="20.05" customHeight="1">
       <c r="A130" s="12"/>
       <c r="B130" t="s" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C130" t="s" s="5">
-        <v>68</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" ht="20.05" customHeight="1">
       <c r="A131" s="12"/>
       <c r="B131" t="s" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C131" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" ht="20.05" customHeight="1">
       <c r="A132" s="12"/>
       <c r="B132" t="s" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C132" t="s" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" ht="20.05" customHeight="1">
       <c r="A133" s="12"/>
       <c r="B133" t="s" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C133" t="s" s="5">
         <v>76</v>
@@ -4773,43 +4773,43 @@
     <row r="134" ht="20.05" customHeight="1">
       <c r="A134" s="12"/>
       <c r="B134" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C134" t="s" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" ht="20.05" customHeight="1">
       <c r="A135" s="12"/>
       <c r="B135" t="s" s="4">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C135" t="s" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" ht="20.05" customHeight="1">
       <c r="A136" s="12"/>
       <c r="B136" t="s" s="4">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C136" t="s" s="5">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="137" ht="20.05" customHeight="1">
       <c r="A137" s="12"/>
       <c r="B137" t="s" s="4">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C137" t="s" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" ht="20.05" customHeight="1">
       <c r="A138" s="12"/>
       <c r="B138" t="s" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C138" t="s" s="5">
         <v>4</v>
@@ -4818,10 +4818,10 @@
     <row r="139" ht="20.05" customHeight="1">
       <c r="A139" s="12"/>
       <c r="B139" t="s" s="4">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C139" t="s" s="5">
-        <v>162</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" ht="20.05" customHeight="1">
@@ -4830,7 +4830,7 @@
         <v>163</v>
       </c>
       <c r="C140" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" ht="20.05" customHeight="1">
@@ -4839,7 +4839,7 @@
         <v>164</v>
       </c>
       <c r="C141" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" ht="20.05" customHeight="1">
@@ -4848,7 +4848,7 @@
         <v>165</v>
       </c>
       <c r="C142" t="s" s="5">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" ht="20.05" customHeight="1">
@@ -4866,7 +4866,7 @@
         <v>167</v>
       </c>
       <c r="C144" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="145" ht="20.05" customHeight="1">
@@ -4875,7 +4875,7 @@
         <v>168</v>
       </c>
       <c r="C145" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="146" ht="20.05" customHeight="1">
@@ -4893,7 +4893,7 @@
         <v>170</v>
       </c>
       <c r="C147" t="s" s="5">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148" ht="20.05" customHeight="1">
@@ -4902,7 +4902,7 @@
         <v>171</v>
       </c>
       <c r="C148" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="149" ht="20.05" customHeight="1">
@@ -4911,7 +4911,7 @@
         <v>172</v>
       </c>
       <c r="C149" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="150" ht="20.05" customHeight="1">
@@ -4920,7 +4920,7 @@
         <v>173</v>
       </c>
       <c r="C150" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="151" ht="20.05" customHeight="1">
@@ -4929,7 +4929,7 @@
         <v>174</v>
       </c>
       <c r="C151" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" ht="20.05" customHeight="1">
@@ -4938,7 +4938,7 @@
         <v>175</v>
       </c>
       <c r="C152" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" ht="20.05" customHeight="1">
@@ -4956,7 +4956,7 @@
         <v>177</v>
       </c>
       <c r="C154" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="155" ht="20.05" customHeight="1">
@@ -4965,7 +4965,7 @@
         <v>178</v>
       </c>
       <c r="C155" t="s" s="5">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="156" ht="20.05" customHeight="1">
@@ -4983,7 +4983,7 @@
         <v>180</v>
       </c>
       <c r="C157" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="158" ht="20.05" customHeight="1">
@@ -5001,7 +5001,7 @@
         <v>182</v>
       </c>
       <c r="C159" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" ht="20.05" customHeight="1">
@@ -5010,7 +5010,7 @@
         <v>183</v>
       </c>
       <c r="C160" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="161" ht="20.05" customHeight="1">
@@ -5019,7 +5019,7 @@
         <v>184</v>
       </c>
       <c r="C161" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="162" ht="20.05" customHeight="1">
@@ -5028,7 +5028,7 @@
         <v>185</v>
       </c>
       <c r="C162" t="s" s="5">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="163" ht="20.05" customHeight="1">
@@ -5037,7 +5037,7 @@
         <v>186</v>
       </c>
       <c r="C163" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" ht="20.05" customHeight="1">
@@ -5055,7 +5055,7 @@
         <v>188</v>
       </c>
       <c r="C165" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="166" ht="20.05" customHeight="1">
@@ -5064,7 +5064,7 @@
         <v>189</v>
       </c>
       <c r="C166" t="s" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" ht="20.05" customHeight="1">
@@ -5073,7 +5073,7 @@
         <v>190</v>
       </c>
       <c r="C167" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" ht="20.05" customHeight="1">
@@ -5082,7 +5082,7 @@
         <v>191</v>
       </c>
       <c r="C168" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="169" ht="20.05" customHeight="1">
@@ -5091,7 +5091,7 @@
         <v>192</v>
       </c>
       <c r="C169" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" ht="20.05" customHeight="1">
@@ -5100,7 +5100,7 @@
         <v>193</v>
       </c>
       <c r="C170" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="171" ht="20.05" customHeight="1">
@@ -5109,7 +5109,7 @@
         <v>194</v>
       </c>
       <c r="C171" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="172" ht="20.05" customHeight="1">
@@ -5118,7 +5118,7 @@
         <v>195</v>
       </c>
       <c r="C172" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="173" ht="20.05" customHeight="1">
@@ -5127,7 +5127,7 @@
         <v>196</v>
       </c>
       <c r="C173" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="174" ht="20.05" customHeight="1">
@@ -5136,7 +5136,7 @@
         <v>197</v>
       </c>
       <c r="C174" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="175" ht="20.05" customHeight="1">
@@ -5145,7 +5145,7 @@
         <v>198</v>
       </c>
       <c r="C175" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" ht="20.05" customHeight="1">
@@ -5154,7 +5154,7 @@
         <v>199</v>
       </c>
       <c r="C176" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" ht="20.05" customHeight="1">
@@ -5163,7 +5163,7 @@
         <v>200</v>
       </c>
       <c r="C177" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" ht="20.05" customHeight="1">
@@ -5172,7 +5172,7 @@
         <v>201</v>
       </c>
       <c r="C178" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="179" ht="20.05" customHeight="1">
@@ -5181,7 +5181,7 @@
         <v>202</v>
       </c>
       <c r="C179" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="180" ht="20.05" customHeight="1">
@@ -5190,7 +5190,7 @@
         <v>203</v>
       </c>
       <c r="C180" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" ht="20.05" customHeight="1">
@@ -5199,7 +5199,7 @@
         <v>204</v>
       </c>
       <c r="C181" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" ht="20.05" customHeight="1">
@@ -5208,7 +5208,7 @@
         <v>205</v>
       </c>
       <c r="C182" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="183" ht="20.05" customHeight="1">
@@ -5217,7 +5217,7 @@
         <v>206</v>
       </c>
       <c r="C183" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="184" ht="20.05" customHeight="1">
@@ -5226,7 +5226,7 @@
         <v>207</v>
       </c>
       <c r="C184" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="185" ht="20.05" customHeight="1">
@@ -5235,7 +5235,7 @@
         <v>208</v>
       </c>
       <c r="C185" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="186" ht="20.05" customHeight="1">
@@ -5244,7 +5244,7 @@
         <v>209</v>
       </c>
       <c r="C186" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="187" ht="20.05" customHeight="1">
@@ -5253,7 +5253,7 @@
         <v>210</v>
       </c>
       <c r="C187" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="188" ht="20.05" customHeight="1">
@@ -5262,7 +5262,7 @@
         <v>211</v>
       </c>
       <c r="C188" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="189" ht="20.05" customHeight="1">
@@ -5280,7 +5280,7 @@
         <v>213</v>
       </c>
       <c r="C190" t="s" s="5">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="191" ht="20.05" customHeight="1">
@@ -5289,7 +5289,7 @@
         <v>214</v>
       </c>
       <c r="C191" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="192" ht="20.05" customHeight="1">
@@ -5298,7 +5298,7 @@
         <v>215</v>
       </c>
       <c r="C192" t="s" s="5">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="193" ht="20.05" customHeight="1">
@@ -5307,7 +5307,7 @@
         <v>216</v>
       </c>
       <c r="C193" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" ht="20.05" customHeight="1">
@@ -5325,7 +5325,7 @@
         <v>218</v>
       </c>
       <c r="C195" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196" ht="20.05" customHeight="1">
@@ -5370,7 +5370,7 @@
         <v>171</v>
       </c>
       <c r="C200" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="201" ht="20.05" customHeight="1">
@@ -5379,7 +5379,7 @@
         <v>223</v>
       </c>
       <c r="C201" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="202" ht="20.05" customHeight="1">
@@ -5388,7 +5388,7 @@
         <v>224</v>
       </c>
       <c r="C202" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="203" ht="20.05" customHeight="1">
@@ -5397,7 +5397,7 @@
         <v>225</v>
       </c>
       <c r="C203" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="204" ht="20.05" customHeight="1">
@@ -5415,7 +5415,7 @@
         <v>228</v>
       </c>
       <c r="C205" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="206" ht="20.05" customHeight="1">
@@ -5424,7 +5424,7 @@
         <v>229</v>
       </c>
       <c r="C206" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="207" ht="20.05" customHeight="1">
@@ -5433,7 +5433,7 @@
         <v>230</v>
       </c>
       <c r="C207" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="208" ht="20.05" customHeight="1">
@@ -5442,7 +5442,7 @@
         <v>231</v>
       </c>
       <c r="C208" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="209" ht="20.05" customHeight="1">
@@ -5451,7 +5451,7 @@
         <v>232</v>
       </c>
       <c r="C209" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="210" ht="20.05" customHeight="1">
@@ -5460,7 +5460,7 @@
         <v>233</v>
       </c>
       <c r="C210" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="211" ht="20.05" customHeight="1">
@@ -5469,7 +5469,7 @@
         <v>234</v>
       </c>
       <c r="C211" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="212" ht="20.05" customHeight="1">
@@ -5487,7 +5487,7 @@
         <v>236</v>
       </c>
       <c r="C213" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="214" ht="20.05" customHeight="1">
@@ -5496,7 +5496,7 @@
         <v>237</v>
       </c>
       <c r="C214" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="215" ht="20.05" customHeight="1">
@@ -5505,7 +5505,7 @@
         <v>238</v>
       </c>
       <c r="C215" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216" ht="20.05" customHeight="1">
@@ -5514,7 +5514,7 @@
         <v>239</v>
       </c>
       <c r="C216" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217" ht="20.05" customHeight="1">
@@ -5523,7 +5523,7 @@
         <v>240</v>
       </c>
       <c r="C217" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="218" ht="20.05" customHeight="1">
@@ -5532,7 +5532,7 @@
         <v>241</v>
       </c>
       <c r="C218" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="219" ht="20.05" customHeight="1">
@@ -5541,7 +5541,7 @@
         <v>242</v>
       </c>
       <c r="C219" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="220" ht="20.05" customHeight="1">
@@ -5550,7 +5550,7 @@
         <v>243</v>
       </c>
       <c r="C220" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221" ht="20.05" customHeight="1">
@@ -5559,7 +5559,7 @@
         <v>244</v>
       </c>
       <c r="C221" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="222" ht="20.05" customHeight="1">
@@ -5568,7 +5568,7 @@
         <v>245</v>
       </c>
       <c r="C222" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="223" ht="20.05" customHeight="1">
@@ -5577,7 +5577,7 @@
         <v>246</v>
       </c>
       <c r="C223" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="224" ht="20.05" customHeight="1">
@@ -5586,67 +5586,67 @@
         <v>247</v>
       </c>
       <c r="C224" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="225" ht="20.05" customHeight="1">
       <c r="A225" s="12"/>
       <c r="B225" t="s" s="4">
-        <v>124</v>
+        <v>248</v>
       </c>
       <c r="C225" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="226" ht="20.05" customHeight="1">
       <c r="A226" s="12"/>
       <c r="B226" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C226" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="227" ht="20.05" customHeight="1">
       <c r="A227" s="12"/>
       <c r="B227" t="s" s="4">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C227" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="228" ht="20.05" customHeight="1">
       <c r="A228" s="12"/>
       <c r="B228" t="s" s="4">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C228" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="229" ht="20.05" customHeight="1">
       <c r="A229" s="12"/>
       <c r="B229" t="s" s="4">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C229" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230" ht="20.05" customHeight="1">
       <c r="A230" s="12"/>
       <c r="B230" t="s" s="4">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C230" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="231" ht="20.05" customHeight="1">
       <c r="A231" s="12"/>
       <c r="B231" t="s" s="4">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C231" t="s" s="5">
         <v>4</v>
@@ -5655,205 +5655,205 @@
     <row r="232" ht="20.05" customHeight="1">
       <c r="A232" s="12"/>
       <c r="B232" t="s" s="4">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C232" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="233" ht="20.05" customHeight="1">
       <c r="A233" s="12"/>
       <c r="B233" t="s" s="4">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C233" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="234" ht="20.05" customHeight="1">
       <c r="A234" s="12"/>
       <c r="B234" t="s" s="4">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C234" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="235" ht="20.05" customHeight="1">
       <c r="A235" s="12"/>
       <c r="B235" t="s" s="4">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C235" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236" ht="20.05" customHeight="1">
       <c r="A236" s="12"/>
       <c r="B236" t="s" s="4">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C236" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" ht="20.05" customHeight="1">
       <c r="A237" s="12"/>
       <c r="B237" t="s" s="4">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C237" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="238" ht="20.05" customHeight="1">
       <c r="A238" s="12"/>
       <c r="B238" t="s" s="4">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C238" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" ht="20.05" customHeight="1">
       <c r="A239" s="12"/>
       <c r="B239" t="s" s="4">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C239" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="240" ht="20.05" customHeight="1">
       <c r="A240" s="12"/>
       <c r="B240" t="s" s="4">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C240" t="s" s="5">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="241" ht="20.05" customHeight="1">
       <c r="A241" s="12"/>
       <c r="B241" t="s" s="4">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C241" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242" ht="20.05" customHeight="1">
       <c r="A242" s="12"/>
       <c r="B242" t="s" s="4">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C242" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="243" ht="20.05" customHeight="1">
       <c r="A243" s="12"/>
       <c r="B243" t="s" s="4">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C243" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244" ht="20.05" customHeight="1">
       <c r="A244" s="12"/>
       <c r="B244" t="s" s="4">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C244" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="245" ht="20.05" customHeight="1">
       <c r="A245" s="12"/>
       <c r="B245" t="s" s="4">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C245" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" ht="20.05" customHeight="1">
       <c r="A246" s="12"/>
       <c r="B246" t="s" s="4">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C246" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="247" ht="20.05" customHeight="1">
       <c r="A247" s="12"/>
       <c r="B247" t="s" s="4">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C247" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="248" ht="20.05" customHeight="1">
       <c r="A248" s="12"/>
       <c r="B248" t="s" s="4">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C248" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249" ht="20.05" customHeight="1">
       <c r="A249" s="12"/>
       <c r="B249" t="s" s="4">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C249" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" ht="20.05" customHeight="1">
       <c r="A250" s="12"/>
       <c r="B250" t="s" s="4">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C250" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="251" ht="20.05" customHeight="1">
       <c r="A251" s="12"/>
       <c r="B251" t="s" s="4">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C251" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" ht="20.05" customHeight="1">
       <c r="A252" s="12"/>
       <c r="B252" t="s" s="4">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C252" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253" ht="20.05" customHeight="1">
       <c r="A253" s="12"/>
       <c r="B253" t="s" s="4">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C253" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="254" ht="20.05" customHeight="1">
       <c r="A254" s="12"/>
       <c r="B254" t="s" s="4">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C254" t="s" s="5">
         <v>15</v>
@@ -5862,124 +5862,124 @@
     <row r="255" ht="20.05" customHeight="1">
       <c r="A255" s="12"/>
       <c r="B255" t="s" s="4">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C255" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="256" ht="20.05" customHeight="1">
       <c r="A256" s="12"/>
       <c r="B256" t="s" s="4">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C256" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="257" ht="20.05" customHeight="1">
       <c r="A257" s="12"/>
       <c r="B257" t="s" s="4">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C257" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="258" ht="20.05" customHeight="1">
       <c r="A258" s="12"/>
       <c r="B258" t="s" s="4">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C258" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="259" ht="20.05" customHeight="1">
       <c r="A259" s="12"/>
       <c r="B259" t="s" s="4">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C259" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="260" ht="20.05" customHeight="1">
       <c r="A260" s="12"/>
       <c r="B260" t="s" s="4">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C260" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" ht="20.05" customHeight="1">
       <c r="A261" s="12"/>
       <c r="B261" t="s" s="4">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C261" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="262" ht="20.05" customHeight="1">
       <c r="A262" s="12"/>
       <c r="B262" t="s" s="4">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C262" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" ht="20.05" customHeight="1">
       <c r="A263" s="12"/>
       <c r="B263" t="s" s="4">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C263" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="264" ht="20.05" customHeight="1">
       <c r="A264" s="12"/>
       <c r="B264" t="s" s="4">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C264" t="s" s="5">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="265" ht="20.05" customHeight="1">
       <c r="A265" s="12"/>
       <c r="B265" t="s" s="4">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C265" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="266" ht="20.05" customHeight="1">
       <c r="A266" s="12"/>
       <c r="B266" t="s" s="4">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C266" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="267" ht="20.05" customHeight="1">
       <c r="A267" s="12"/>
       <c r="B267" t="s" s="4">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C267" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="268" ht="20.05" customHeight="1">
       <c r="A268" s="12"/>
       <c r="B268" t="s" s="4">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C268" t="s" s="5">
         <v>4</v>
@@ -5988,106 +5988,106 @@
     <row r="269" ht="20.05" customHeight="1">
       <c r="A269" s="12"/>
       <c r="B269" t="s" s="4">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C269" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="270" ht="20.05" customHeight="1">
       <c r="A270" s="12"/>
       <c r="B270" t="s" s="4">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C270" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="271" ht="20.05" customHeight="1">
       <c r="A271" s="12"/>
       <c r="B271" t="s" s="4">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C271" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="272" ht="20.05" customHeight="1">
       <c r="A272" s="12"/>
       <c r="B272" t="s" s="4">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C272" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="273" ht="20.05" customHeight="1">
       <c r="A273" s="12"/>
       <c r="B273" t="s" s="4">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C273" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="274" ht="20.05" customHeight="1">
       <c r="A274" s="12"/>
       <c r="B274" t="s" s="4">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C274" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="275" ht="20.05" customHeight="1">
       <c r="A275" s="12"/>
       <c r="B275" t="s" s="4">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C275" t="s" s="5">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="276" ht="20.05" customHeight="1">
       <c r="A276" s="12"/>
       <c r="B276" t="s" s="4">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C276" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="277" ht="20.05" customHeight="1">
       <c r="A277" s="12"/>
       <c r="B277" t="s" s="4">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C277" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="278" ht="20.05" customHeight="1">
       <c r="A278" s="12"/>
       <c r="B278" t="s" s="4">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C278" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="279" ht="20.05" customHeight="1">
       <c r="A279" s="12"/>
       <c r="B279" t="s" s="4">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C279" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280" ht="20.05" customHeight="1">
       <c r="A280" s="12"/>
       <c r="B280" t="s" s="4">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C280" t="s" s="5">
         <v>4</v>
@@ -6096,43 +6096,43 @@
     <row r="281" ht="20.05" customHeight="1">
       <c r="A281" s="12"/>
       <c r="B281" t="s" s="4">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C281" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="282" ht="20.05" customHeight="1">
       <c r="A282" s="12"/>
       <c r="B282" t="s" s="4">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C282" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="283" ht="20.05" customHeight="1">
       <c r="A283" s="12"/>
       <c r="B283" t="s" s="4">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C283" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="284" ht="20.05" customHeight="1">
       <c r="A284" s="12"/>
       <c r="B284" t="s" s="4">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C284" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="285" ht="20.05" customHeight="1">
       <c r="A285" s="12"/>
       <c r="B285" t="s" s="4">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C285" t="s" s="5">
         <v>4</v>
@@ -6141,241 +6141,241 @@
     <row r="286" ht="20.05" customHeight="1">
       <c r="A286" s="12"/>
       <c r="B286" t="s" s="4">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C286" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="287" ht="20.05" customHeight="1">
       <c r="A287" s="12"/>
       <c r="B287" t="s" s="4">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C287" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="288" ht="20.05" customHeight="1">
       <c r="A288" s="12"/>
       <c r="B288" t="s" s="4">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C288" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="289" ht="20.05" customHeight="1">
       <c r="A289" s="12"/>
       <c r="B289" t="s" s="4">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C289" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="290" ht="20.05" customHeight="1">
       <c r="A290" s="12"/>
       <c r="B290" t="s" s="4">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C290" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="291" ht="20.05" customHeight="1">
       <c r="A291" s="12"/>
       <c r="B291" t="s" s="4">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C291" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="292" ht="20.05" customHeight="1">
       <c r="A292" s="12"/>
       <c r="B292" t="s" s="4">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C292" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="293" ht="20.05" customHeight="1">
       <c r="A293" s="12"/>
       <c r="B293" t="s" s="4">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C293" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="294" ht="20.05" customHeight="1">
       <c r="A294" s="12"/>
       <c r="B294" t="s" s="4">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C294" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="295" ht="20.05" customHeight="1">
       <c r="A295" s="12"/>
       <c r="B295" t="s" s="4">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C295" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="296" ht="20.05" customHeight="1">
       <c r="A296" s="12"/>
       <c r="B296" t="s" s="4">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C296" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="297" ht="20.05" customHeight="1">
       <c r="A297" s="12"/>
       <c r="B297" t="s" s="4">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C297" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="298" ht="20.05" customHeight="1">
       <c r="A298" s="12"/>
       <c r="B298" t="s" s="4">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C298" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="299" ht="20.05" customHeight="1">
       <c r="A299" s="12"/>
       <c r="B299" t="s" s="4">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C299" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="300" ht="20.05" customHeight="1">
       <c r="A300" s="12"/>
       <c r="B300" t="s" s="4">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C300" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="301" ht="20.05" customHeight="1">
       <c r="A301" s="12"/>
       <c r="B301" t="s" s="4">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C301" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="302" ht="20.05" customHeight="1">
       <c r="A302" s="12"/>
       <c r="B302" t="s" s="4">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C302" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="303" ht="20.05" customHeight="1">
       <c r="A303" s="12"/>
       <c r="B303" t="s" s="4">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C303" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="304" ht="20.05" customHeight="1">
       <c r="A304" s="12"/>
       <c r="B304" t="s" s="4">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C304" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" ht="20.05" customHeight="1">
       <c r="A305" s="12"/>
       <c r="B305" t="s" s="4">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C305" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="306" ht="20.05" customHeight="1">
       <c r="A306" s="12"/>
       <c r="B306" t="s" s="4">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C306" t="s" s="5">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="307" ht="20.05" customHeight="1">
       <c r="A307" s="12"/>
       <c r="B307" t="s" s="4">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C307" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="308" ht="20.05" customHeight="1">
       <c r="A308" s="12"/>
       <c r="B308" t="s" s="4">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C308" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="309" ht="20.05" customHeight="1">
       <c r="A309" s="12"/>
       <c r="B309" t="s" s="4">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C309" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="310" ht="20.05" customHeight="1">
       <c r="A310" s="12"/>
       <c r="B310" t="s" s="4">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C310" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="311" ht="20.05" customHeight="1">
       <c r="A311" s="12"/>
       <c r="B311" t="s" s="4">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C311" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="312" ht="20.05" customHeight="1">
       <c r="A312" s="12"/>
       <c r="B312" t="s" s="4">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C312" t="s" s="5">
         <v>4</v>
@@ -6384,16 +6384,16 @@
     <row r="313" ht="20.05" customHeight="1">
       <c r="A313" s="12"/>
       <c r="B313" t="s" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C313" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="314" ht="20.05" customHeight="1">
       <c r="A314" s="12"/>
       <c r="B314" t="s" s="4">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C314" t="s" s="5">
         <v>4</v>
@@ -6402,16 +6402,16 @@
     <row r="315" ht="20.05" customHeight="1">
       <c r="A315" s="12"/>
       <c r="B315" t="s" s="4">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C315" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="316" ht="20.05" customHeight="1">
       <c r="A316" s="12"/>
       <c r="B316" t="s" s="4">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C316" t="s" s="5">
         <v>4</v>
@@ -6420,169 +6420,169 @@
     <row r="317" ht="20.05" customHeight="1">
       <c r="A317" s="12"/>
       <c r="B317" t="s" s="4">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C317" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="318" ht="20.05" customHeight="1">
       <c r="A318" s="12"/>
       <c r="B318" t="s" s="4">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C318" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="319" ht="20.05" customHeight="1">
       <c r="A319" s="12"/>
       <c r="B319" t="s" s="4">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C319" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="320" ht="20.05" customHeight="1">
       <c r="A320" s="12"/>
       <c r="B320" t="s" s="4">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C320" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="321" ht="20.05" customHeight="1">
       <c r="A321" s="12"/>
       <c r="B321" t="s" s="4">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C321" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="322" ht="20.05" customHeight="1">
       <c r="A322" s="12"/>
       <c r="B322" t="s" s="4">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C322" t="s" s="5">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="323" ht="20.05" customHeight="1">
       <c r="A323" s="12"/>
       <c r="B323" t="s" s="4">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C323" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324" ht="20.05" customHeight="1">
       <c r="A324" s="12"/>
       <c r="B324" t="s" s="4">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C324" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="325" ht="20.05" customHeight="1">
       <c r="A325" s="12"/>
       <c r="B325" t="s" s="4">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C325" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" ht="20.05" customHeight="1">
       <c r="A326" s="12"/>
       <c r="B326" t="s" s="4">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C326" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="327" ht="20.05" customHeight="1">
       <c r="A327" s="12"/>
       <c r="B327" t="s" s="4">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C327" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="328" ht="20.05" customHeight="1">
       <c r="A328" s="12"/>
       <c r="B328" t="s" s="4">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C328" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="329" ht="20.05" customHeight="1">
       <c r="A329" s="12"/>
       <c r="B329" t="s" s="4">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C329" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" ht="20.05" customHeight="1">
       <c r="A330" s="12"/>
       <c r="B330" t="s" s="4">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C330" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="331" ht="20.05" customHeight="1">
       <c r="A331" s="12"/>
       <c r="B331" t="s" s="4">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C331" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332" ht="20.05" customHeight="1">
       <c r="A332" s="12"/>
       <c r="B332" t="s" s="4">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C332" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="333" ht="20.05" customHeight="1">
       <c r="A333" s="12"/>
       <c r="B333" t="s" s="4">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C333" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="334" ht="20.05" customHeight="1">
       <c r="A334" s="12"/>
       <c r="B334" t="s" s="4">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C334" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="335" ht="20.05" customHeight="1">
       <c r="A335" s="12"/>
       <c r="B335" t="s" s="4">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C335" t="s" s="5">
         <v>4</v>
@@ -6591,25 +6591,25 @@
     <row r="336" ht="20.05" customHeight="1">
       <c r="A336" s="12"/>
       <c r="B336" t="s" s="4">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C336" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="337" ht="20.05" customHeight="1">
       <c r="A337" s="12"/>
       <c r="B337" t="s" s="4">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C337" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="338" ht="20.05" customHeight="1">
       <c r="A338" s="12"/>
       <c r="B338" t="s" s="4">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C338" t="s" s="5">
         <v>99</v>
@@ -6618,25 +6618,25 @@
     <row r="339" ht="20.05" customHeight="1">
       <c r="A339" s="12"/>
       <c r="B339" t="s" s="4">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C339" t="s" s="5">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="340" ht="20.05" customHeight="1">
       <c r="A340" s="12"/>
       <c r="B340" t="s" s="4">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C340" t="s" s="5">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="341" ht="20.05" customHeight="1">
       <c r="A341" s="12"/>
       <c r="B341" t="s" s="4">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C341" t="s" s="5">
         <v>4</v>
@@ -6645,61 +6645,61 @@
     <row r="342" ht="20.05" customHeight="1">
       <c r="A342" s="12"/>
       <c r="B342" t="s" s="4">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C342" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="343" ht="20.05" customHeight="1">
       <c r="A343" s="12"/>
       <c r="B343" t="s" s="4">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C343" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" ht="20.05" customHeight="1">
       <c r="A344" s="12"/>
       <c r="B344" t="s" s="4">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C344" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="345" ht="20.05" customHeight="1">
       <c r="A345" s="12"/>
       <c r="B345" t="s" s="4">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C345" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="346" ht="20.05" customHeight="1">
       <c r="A346" s="12"/>
       <c r="B346" t="s" s="4">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C346" t="s" s="5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="347" ht="20.05" customHeight="1">
       <c r="A347" s="12"/>
       <c r="B347" t="s" s="4">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C347" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="348" ht="20.05" customHeight="1">
       <c r="A348" s="12"/>
       <c r="B348" t="s" s="4">
-        <v>370</v>
+        <v>122</v>
       </c>
       <c r="C348" t="s" s="5">
         <v>99</v>
@@ -6720,7 +6720,7 @@
         <v>372</v>
       </c>
       <c r="C350" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="351" ht="20.05" customHeight="1">
@@ -6729,7 +6729,7 @@
         <v>373</v>
       </c>
       <c r="C351" t="s" s="5">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="352" ht="20.05" customHeight="1">
@@ -6738,7 +6738,7 @@
         <v>374</v>
       </c>
       <c r="C352" t="s" s="5">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="353" ht="20.05" customHeight="1">
@@ -6747,7 +6747,7 @@
         <v>375</v>
       </c>
       <c r="C353" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="354" ht="20.05" customHeight="1">
@@ -6765,7 +6765,7 @@
         <v>377</v>
       </c>
       <c r="C355" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="356" ht="20.05" customHeight="1">
@@ -6774,7 +6774,7 @@
         <v>378</v>
       </c>
       <c r="C356" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="357" ht="20.05" customHeight="1">
@@ -6783,7 +6783,7 @@
         <v>379</v>
       </c>
       <c r="C357" t="s" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="358" ht="20.05" customHeight="1">
@@ -6801,7 +6801,7 @@
         <v>381</v>
       </c>
       <c r="C359" t="s" s="5">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="360" ht="20.05" customHeight="1">
@@ -6810,7 +6810,7 @@
         <v>382</v>
       </c>
       <c r="C360" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="361" ht="20.05" customHeight="1">
@@ -6819,7 +6819,7 @@
         <v>383</v>
       </c>
       <c r="C361" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="362" ht="20.05" customHeight="1">
@@ -6837,7 +6837,7 @@
         <v>385</v>
       </c>
       <c r="C363" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="364" ht="20.05" customHeight="1">
@@ -6846,7 +6846,7 @@
         <v>386</v>
       </c>
       <c r="C364" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="365" ht="20.05" customHeight="1">
@@ -6855,7 +6855,7 @@
         <v>387</v>
       </c>
       <c r="C365" t="s" s="5">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="366" ht="20.05" customHeight="1">
@@ -6864,7 +6864,7 @@
         <v>388</v>
       </c>
       <c r="C366" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="367" ht="20.05" customHeight="1">
@@ -6873,7 +6873,7 @@
         <v>389</v>
       </c>
       <c r="C367" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="368" ht="20.05" customHeight="1">
@@ -6882,7 +6882,7 @@
         <v>390</v>
       </c>
       <c r="C368" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="369" ht="20.05" customHeight="1">
@@ -6900,7 +6900,7 @@
         <v>392</v>
       </c>
       <c r="C370" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="371" ht="20.05" customHeight="1">
@@ -6909,7 +6909,7 @@
         <v>393</v>
       </c>
       <c r="C371" t="s" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" ht="20.05" customHeight="1">
@@ -6927,7 +6927,7 @@
         <v>396</v>
       </c>
       <c r="C373" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="374" ht="20.05" customHeight="1">
@@ -6936,7 +6936,7 @@
         <v>397</v>
       </c>
       <c r="C374" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="375" ht="20.05" customHeight="1">
@@ -6945,7 +6945,7 @@
         <v>398</v>
       </c>
       <c r="C375" t="s" s="5">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="376" ht="20.05" customHeight="1">
@@ -6954,7 +6954,7 @@
         <v>399</v>
       </c>
       <c r="C376" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="377" ht="20.05" customHeight="1">
@@ -6963,7 +6963,7 @@
         <v>400</v>
       </c>
       <c r="C377" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="378" ht="20.05" customHeight="1">
@@ -6972,7 +6972,7 @@
         <v>401</v>
       </c>
       <c r="C378" t="s" s="5">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="379" ht="20.05" customHeight="1">
@@ -6999,7 +6999,7 @@
         <v>405</v>
       </c>
       <c r="C381" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="382" ht="20.05" customHeight="1">
@@ -7017,7 +7017,7 @@
         <v>407</v>
       </c>
       <c r="C383" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="384" ht="20.05" customHeight="1">
@@ -7035,7 +7035,7 @@
         <v>409</v>
       </c>
       <c r="C385" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="386" ht="20.05" customHeight="1">
@@ -7062,7 +7062,7 @@
         <v>412</v>
       </c>
       <c r="C388" t="s" s="5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="389" ht="20.05" customHeight="1">
@@ -7071,7 +7071,7 @@
         <v>413</v>
       </c>
       <c r="C389" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="390" ht="20.05" customHeight="1">
@@ -7080,7 +7080,7 @@
         <v>414</v>
       </c>
       <c r="C390" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="391" ht="20.05" customHeight="1">
@@ -7089,7 +7089,7 @@
         <v>415</v>
       </c>
       <c r="C391" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="392" ht="20.05" customHeight="1">
@@ -7098,7 +7098,7 @@
         <v>416</v>
       </c>
       <c r="C392" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="393" ht="20.05" customHeight="1">
@@ -7107,7 +7107,7 @@
         <v>417</v>
       </c>
       <c r="C393" t="s" s="5">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="394" ht="20.05" customHeight="1">
@@ -7134,7 +7134,7 @@
         <v>421</v>
       </c>
       <c r="C396" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="397" ht="20.05" customHeight="1">
@@ -7143,7 +7143,7 @@
         <v>422</v>
       </c>
       <c r="C397" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="398" ht="20.05" customHeight="1">
@@ -7152,7 +7152,7 @@
         <v>423</v>
       </c>
       <c r="C398" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="399" ht="20.05" customHeight="1">
@@ -7179,7 +7179,7 @@
         <v>426</v>
       </c>
       <c r="C401" t="s" s="5">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="402" ht="20.05" customHeight="1">
@@ -7188,7 +7188,7 @@
         <v>427</v>
       </c>
       <c r="C402" t="s" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="403" ht="20.05" customHeight="1">
@@ -7197,7 +7197,7 @@
         <v>428</v>
       </c>
       <c r="C403" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="404" ht="20.05" customHeight="1">
@@ -7206,7 +7206,7 @@
         <v>429</v>
       </c>
       <c r="C404" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="405" ht="20.05" customHeight="1">
@@ -7224,7 +7224,7 @@
         <v>431</v>
       </c>
       <c r="C406" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="407" ht="20.05" customHeight="1">
@@ -7233,7 +7233,7 @@
         <v>432</v>
       </c>
       <c r="C407" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="408" ht="20.05" customHeight="1">
@@ -7269,7 +7269,7 @@
         <v>436</v>
       </c>
       <c r="C411" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="412" ht="20.05" customHeight="1">
@@ -7278,7 +7278,7 @@
         <v>437</v>
       </c>
       <c r="C412" t="s" s="5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="413" ht="20.05" customHeight="1">
@@ -7287,7 +7287,7 @@
         <v>438</v>
       </c>
       <c r="C413" t="s" s="5">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="414" ht="20.05" customHeight="1">
@@ -7296,7 +7296,7 @@
         <v>439</v>
       </c>
       <c r="C414" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="415" ht="20.05" customHeight="1">
@@ -7305,7 +7305,7 @@
         <v>440</v>
       </c>
       <c r="C415" t="s" s="5">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="416" ht="20.05" customHeight="1">
@@ -7314,7 +7314,7 @@
         <v>441</v>
       </c>
       <c r="C416" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="417" ht="20.05" customHeight="1">
@@ -7323,7 +7323,7 @@
         <v>442</v>
       </c>
       <c r="C417" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="418" ht="20.05" customHeight="1">
@@ -7341,7 +7341,7 @@
         <v>444</v>
       </c>
       <c r="C419" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="420" ht="20.05" customHeight="1">
@@ -7350,7 +7350,7 @@
         <v>445</v>
       </c>
       <c r="C420" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="421" ht="20.05" customHeight="1">
@@ -7359,7 +7359,7 @@
         <v>446</v>
       </c>
       <c r="C421" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="422" ht="20.05" customHeight="1">
@@ -7368,7 +7368,7 @@
         <v>447</v>
       </c>
       <c r="C422" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="423" ht="20.05" customHeight="1">
@@ -7377,7 +7377,7 @@
         <v>448</v>
       </c>
       <c r="C423" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="424" ht="20.05" customHeight="1">
@@ -7386,7 +7386,7 @@
         <v>449</v>
       </c>
       <c r="C424" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="425" ht="20.05" customHeight="1">
@@ -7404,7 +7404,7 @@
         <v>451</v>
       </c>
       <c r="C426" t="s" s="5">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="427" ht="20.05" customHeight="1">
@@ -7413,7 +7413,7 @@
         <v>452</v>
       </c>
       <c r="C427" t="s" s="5">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="428" ht="20.05" customHeight="1">
@@ -7422,7 +7422,7 @@
         <v>453</v>
       </c>
       <c r="C428" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="429" ht="20.05" customHeight="1">
@@ -7431,7 +7431,7 @@
         <v>454</v>
       </c>
       <c r="C429" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="430" ht="20.05" customHeight="1">
@@ -7440,7 +7440,7 @@
         <v>455</v>
       </c>
       <c r="C430" t="s" s="5">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="431" ht="20.05" customHeight="1">
@@ -7449,7 +7449,7 @@
         <v>456</v>
       </c>
       <c r="C431" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="432" ht="20.05" customHeight="1">
@@ -7458,7 +7458,7 @@
         <v>457</v>
       </c>
       <c r="C432" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="433" ht="20.05" customHeight="1">
@@ -7467,7 +7467,7 @@
         <v>458</v>
       </c>
       <c r="C433" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="434" ht="20.05" customHeight="1">
@@ -7476,7 +7476,7 @@
         <v>459</v>
       </c>
       <c r="C434" t="s" s="5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="435" ht="20.05" customHeight="1">
@@ -7485,7 +7485,7 @@
         <v>460</v>
       </c>
       <c r="C435" t="s" s="5">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="436" ht="20.05" customHeight="1">
@@ -7503,7 +7503,7 @@
         <v>462</v>
       </c>
       <c r="C437" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="438" ht="20.05" customHeight="1">
@@ -7530,7 +7530,7 @@
         <v>466</v>
       </c>
       <c r="C440" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="441" ht="20.05" customHeight="1">
@@ -7548,7 +7548,7 @@
         <v>468</v>
       </c>
       <c r="C442" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="443" ht="20.05" customHeight="1">
@@ -7557,7 +7557,7 @@
         <v>469</v>
       </c>
       <c r="C443" t="s" s="5">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="444" ht="20.05" customHeight="1">
@@ -7566,7 +7566,7 @@
         <v>470</v>
       </c>
       <c r="C444" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="445" ht="20.05" customHeight="1">
@@ -7575,7 +7575,7 @@
         <v>471</v>
       </c>
       <c r="C445" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="446" ht="20.05" customHeight="1">
@@ -7584,7 +7584,7 @@
         <v>472</v>
       </c>
       <c r="C446" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="447" ht="20.05" customHeight="1">
@@ -7593,7 +7593,7 @@
         <v>473</v>
       </c>
       <c r="C447" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="448" ht="20.05" customHeight="1">
@@ -7611,7 +7611,7 @@
         <v>475</v>
       </c>
       <c r="C449" t="s" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="450" ht="20.05" customHeight="1">
@@ -7620,7 +7620,7 @@
         <v>476</v>
       </c>
       <c r="C450" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="451" ht="20.05" customHeight="1">
@@ -7638,7 +7638,7 @@
         <v>478</v>
       </c>
       <c r="C452" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="453" ht="20.05" customHeight="1">
@@ -7647,7 +7647,7 @@
         <v>479</v>
       </c>
       <c r="C453" t="s" s="5">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="454" ht="20.05" customHeight="1">
@@ -7665,7 +7665,7 @@
         <v>481</v>
       </c>
       <c r="C455" t="s" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="456" ht="20.05" customHeight="1">
@@ -7674,7 +7674,7 @@
         <v>482</v>
       </c>
       <c r="C456" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="457" ht="20.05" customHeight="1">
@@ -7683,7 +7683,7 @@
         <v>483</v>
       </c>
       <c r="C457" t="s" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="458" ht="20.05" customHeight="1">
@@ -7692,7 +7692,7 @@
         <v>484</v>
       </c>
       <c r="C458" t="s" s="5">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="459" ht="20.05" customHeight="1">
@@ -7701,7 +7701,7 @@
         <v>485</v>
       </c>
       <c r="C459" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="460" ht="20.05" customHeight="1">
@@ -7710,7 +7710,7 @@
         <v>486</v>
       </c>
       <c r="C460" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="461" ht="20.05" customHeight="1">
@@ -7719,7 +7719,7 @@
         <v>487</v>
       </c>
       <c r="C461" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="462" ht="20.05" customHeight="1">
@@ -7728,7 +7728,7 @@
         <v>488</v>
       </c>
       <c r="C462" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="463" ht="20.05" customHeight="1">
@@ -7737,7 +7737,7 @@
         <v>489</v>
       </c>
       <c r="C463" t="s" s="5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="464" ht="20.05" customHeight="1">
@@ -7746,7 +7746,7 @@
         <v>490</v>
       </c>
       <c r="C464" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="465" ht="20.05" customHeight="1">
@@ -7755,7 +7755,7 @@
         <v>491</v>
       </c>
       <c r="C465" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="466" ht="20.05" customHeight="1">
@@ -7764,7 +7764,7 @@
         <v>492</v>
       </c>
       <c r="C466" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="467" ht="20.05" customHeight="1">
@@ -7773,7 +7773,7 @@
         <v>493</v>
       </c>
       <c r="C467" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="468" ht="20.05" customHeight="1">
@@ -7782,7 +7782,7 @@
         <v>494</v>
       </c>
       <c r="C468" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="469" ht="20.05" customHeight="1">
@@ -7791,7 +7791,7 @@
         <v>495</v>
       </c>
       <c r="C469" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="470" ht="20.05" customHeight="1">
@@ -7845,7 +7845,7 @@
         <v>501</v>
       </c>
       <c r="C475" t="s" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="476" ht="20.05" customHeight="1">
@@ -7881,7 +7881,7 @@
         <v>506</v>
       </c>
       <c r="C479" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="480" ht="20.05" customHeight="1">
@@ -7890,7 +7890,7 @@
         <v>507</v>
       </c>
       <c r="C480" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="481" ht="20.05" customHeight="1">
@@ -7899,7 +7899,7 @@
         <v>508</v>
       </c>
       <c r="C481" t="s" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="482" ht="20.05" customHeight="1">
@@ -7917,7 +7917,7 @@
         <v>510</v>
       </c>
       <c r="C483" t="s" s="5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="484" ht="20.05" customHeight="1">
@@ -7926,7 +7926,7 @@
         <v>511</v>
       </c>
       <c r="C484" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="485" ht="20.05" customHeight="1">
@@ -7935,7 +7935,7 @@
         <v>512</v>
       </c>
       <c r="C485" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="486" ht="20.05" customHeight="1">
@@ -7944,7 +7944,7 @@
         <v>513</v>
       </c>
       <c r="C486" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="487" ht="20.05" customHeight="1">
@@ -7953,7 +7953,7 @@
         <v>514</v>
       </c>
       <c r="C487" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="488" ht="20.05" customHeight="1">
@@ -7971,7 +7971,7 @@
         <v>516</v>
       </c>
       <c r="C489" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="490" ht="20.05" customHeight="1">
@@ -8007,7 +8007,7 @@
         <v>520</v>
       </c>
       <c r="C493" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="494" ht="20.05" customHeight="1">
@@ -8016,7 +8016,7 @@
         <v>521</v>
       </c>
       <c r="C494" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="495" ht="20.05" customHeight="1">
@@ -8025,7 +8025,7 @@
         <v>522</v>
       </c>
       <c r="C495" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="496" ht="20.05" customHeight="1">
@@ -8034,7 +8034,7 @@
         <v>523</v>
       </c>
       <c r="C496" t="s" s="5">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="497" ht="20.05" customHeight="1">
@@ -8043,7 +8043,7 @@
         <v>524</v>
       </c>
       <c r="C497" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="498" ht="20.05" customHeight="1">
@@ -8052,7 +8052,7 @@
         <v>525</v>
       </c>
       <c r="C498" t="s" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="499" ht="20.05" customHeight="1">
@@ -8061,7 +8061,7 @@
         <v>526</v>
       </c>
       <c r="C499" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="500" ht="20.05" customHeight="1">
@@ -8070,7 +8070,7 @@
         <v>527</v>
       </c>
       <c r="C500" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="501" ht="20.05" customHeight="1">
@@ -8079,7 +8079,7 @@
         <v>528</v>
       </c>
       <c r="C501" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="502" ht="20.05" customHeight="1">
@@ -8088,7 +8088,7 @@
         <v>529</v>
       </c>
       <c r="C502" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="503" ht="20.05" customHeight="1">
@@ -8097,7 +8097,7 @@
         <v>530</v>
       </c>
       <c r="C503" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="504" ht="20.05" customHeight="1">
@@ -8115,7 +8115,7 @@
         <v>532</v>
       </c>
       <c r="C505" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="506" ht="20.05" customHeight="1">
@@ -8124,7 +8124,7 @@
         <v>533</v>
       </c>
       <c r="C506" t="s" s="5">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="507" ht="20.05" customHeight="1">
@@ -8133,7 +8133,7 @@
         <v>534</v>
       </c>
       <c r="C507" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="508" ht="20.05" customHeight="1">
@@ -8151,7 +8151,7 @@
         <v>536</v>
       </c>
       <c r="C509" t="s" s="5">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="510" ht="20.05" customHeight="1">
@@ -8160,7 +8160,7 @@
         <v>537</v>
       </c>
       <c r="C510" t="s" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="511" ht="20.05" customHeight="1">
@@ -8178,7 +8178,7 @@
         <v>539</v>
       </c>
       <c r="C512" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="513" ht="20.05" customHeight="1">
@@ -8187,7 +8187,7 @@
         <v>540</v>
       </c>
       <c r="C513" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="514" ht="20.05" customHeight="1">
@@ -8214,7 +8214,7 @@
         <v>543</v>
       </c>
       <c r="C516" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="517" ht="20.05" customHeight="1">
@@ -8232,7 +8232,7 @@
         <v>545</v>
       </c>
       <c r="C518" t="s" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="519" ht="20.05" customHeight="1">
@@ -8241,7 +8241,7 @@
         <v>546</v>
       </c>
       <c r="C519" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="520" ht="20.05" customHeight="1">
@@ -8250,7 +8250,7 @@
         <v>547</v>
       </c>
       <c r="C520" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="521" ht="20.05" customHeight="1">
@@ -8268,7 +8268,7 @@
         <v>549</v>
       </c>
       <c r="C522" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="523" ht="20.05" customHeight="1">
@@ -8277,7 +8277,7 @@
         <v>550</v>
       </c>
       <c r="C523" t="s" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="524" ht="20.05" customHeight="1">
@@ -8286,7 +8286,7 @@
         <v>551</v>
       </c>
       <c r="C524" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="525" ht="20.05" customHeight="1">
@@ -8295,7 +8295,7 @@
         <v>552</v>
       </c>
       <c r="C525" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="526" ht="20.05" customHeight="1">
@@ -8304,7 +8304,7 @@
         <v>553</v>
       </c>
       <c r="C526" t="s" s="5">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="527" ht="20.05" customHeight="1">
@@ -8313,7 +8313,7 @@
         <v>554</v>
       </c>
       <c r="C527" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="528" ht="20.05" customHeight="1">
@@ -8322,7 +8322,7 @@
         <v>555</v>
       </c>
       <c r="C528" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="529" ht="20.05" customHeight="1">
@@ -8340,7 +8340,7 @@
         <v>557</v>
       </c>
       <c r="C530" t="s" s="5">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="531" ht="20.05" customHeight="1">
@@ -8358,7 +8358,7 @@
         <v>559</v>
       </c>
       <c r="C532" t="s" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="533" ht="20.05" customHeight="1">
@@ -8376,7 +8376,7 @@
         <v>561</v>
       </c>
       <c r="C534" t="s" s="5">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="535" ht="20.05" customHeight="1">
@@ -8403,7 +8403,7 @@
         <v>564</v>
       </c>
       <c r="C537" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="538" ht="20.05" customHeight="1">
@@ -8412,7 +8412,7 @@
         <v>565</v>
       </c>
       <c r="C538" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="539" ht="20.05" customHeight="1">
@@ -8448,7 +8448,7 @@
         <v>569</v>
       </c>
       <c r="C542" t="s" s="5">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="543" ht="20.05" customHeight="1">
@@ -8457,7 +8457,7 @@
         <v>570</v>
       </c>
       <c r="C543" t="s" s="5">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="544" ht="20.05" customHeight="1">
@@ -8475,7 +8475,7 @@
         <v>572</v>
       </c>
       <c r="C545" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="546" ht="20.05" customHeight="1">
@@ -8493,7 +8493,7 @@
         <v>575</v>
       </c>
       <c r="C547" t="s" s="5">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="548" ht="20.05" customHeight="1">
@@ -8502,7 +8502,7 @@
         <v>576</v>
       </c>
       <c r="C548" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="549" ht="20.05" customHeight="1">
@@ -8511,7 +8511,7 @@
         <v>577</v>
       </c>
       <c r="C549" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="550" ht="20.05" customHeight="1">
@@ -8520,7 +8520,7 @@
         <v>578</v>
       </c>
       <c r="C550" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="551" ht="20.05" customHeight="1">
@@ -8547,7 +8547,7 @@
         <v>581</v>
       </c>
       <c r="C553" t="s" s="5">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="554" ht="20.05" customHeight="1">
@@ -8556,7 +8556,7 @@
         <v>582</v>
       </c>
       <c r="C554" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="555" ht="20.05" customHeight="1">
@@ -8574,7 +8574,7 @@
         <v>584</v>
       </c>
       <c r="C556" t="s" s="5">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="557" ht="20.05" customHeight="1">
@@ -8592,7 +8592,7 @@
         <v>586</v>
       </c>
       <c r="C558" t="s" s="5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="559" ht="20.05" customHeight="1">
@@ -8637,7 +8637,7 @@
         <v>591</v>
       </c>
       <c r="C563" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="564" ht="20.05" customHeight="1">
@@ -8646,7 +8646,7 @@
         <v>592</v>
       </c>
       <c r="C564" t="s" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="565" ht="20.05" customHeight="1">
@@ -8673,7 +8673,7 @@
         <v>595</v>
       </c>
       <c r="C567" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="568" ht="20.05" customHeight="1">
@@ -8682,7 +8682,7 @@
         <v>596</v>
       </c>
       <c r="C568" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="569" ht="20.05" customHeight="1">
@@ -8691,7 +8691,7 @@
         <v>597</v>
       </c>
       <c r="C569" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="570" ht="20.05" customHeight="1">
@@ -8700,7 +8700,7 @@
         <v>598</v>
       </c>
       <c r="C570" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="571" ht="20.05" customHeight="1">
@@ -8718,7 +8718,7 @@
         <v>600</v>
       </c>
       <c r="C572" t="s" s="5">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="573" ht="20.05" customHeight="1">
@@ -8736,7 +8736,7 @@
         <v>602</v>
       </c>
       <c r="C574" t="s" s="5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="575" ht="20.05" customHeight="1">
@@ -8754,7 +8754,7 @@
         <v>604</v>
       </c>
       <c r="C576" t="s" s="5">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="577" ht="20.05" customHeight="1">
@@ -8781,7 +8781,7 @@
         <v>608</v>
       </c>
       <c r="C579" t="s" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="580" ht="20.05" customHeight="1">
@@ -8790,7 +8790,7 @@
         <v>609</v>
       </c>
       <c r="C580" t="s" s="5">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="581" ht="20.05" customHeight="1">
@@ -8799,7 +8799,7 @@
         <v>610</v>
       </c>
       <c r="C581" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="582" ht="20.05" customHeight="1">
@@ -8817,7 +8817,7 @@
         <v>612</v>
       </c>
       <c r="C583" t="s" s="5">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="584" ht="20.05" customHeight="1">
@@ -8862,7 +8862,7 @@
         <v>617</v>
       </c>
       <c r="C588" t="s" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="589" ht="20.05" customHeight="1">
@@ -8871,7 +8871,7 @@
         <v>618</v>
       </c>
       <c r="C589" t="s" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="590" ht="20.05" customHeight="1">
@@ -8880,7 +8880,7 @@
         <v>619</v>
       </c>
       <c r="C590" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="591" ht="20.05" customHeight="1">
@@ -8898,7 +8898,7 @@
         <v>621</v>
       </c>
       <c r="C592" t="s" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="593" ht="20.05" customHeight="1">
@@ -8907,7 +8907,7 @@
         <v>622</v>
       </c>
       <c r="C593" t="s" s="5">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="594" ht="20.05" customHeight="1">
@@ -8934,7 +8934,7 @@
         <v>625</v>
       </c>
       <c r="C596" t="s" s="5">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="597" ht="20.05" customHeight="1">
@@ -8952,7 +8952,7 @@
         <v>627</v>
       </c>
       <c r="C598" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="599" ht="20.05" customHeight="1">
@@ -8970,7 +8970,7 @@
         <v>629</v>
       </c>
       <c r="C600" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="601" ht="20.05" customHeight="1">
@@ -9015,7 +9015,7 @@
         <v>635</v>
       </c>
       <c r="C605" t="s" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="606" ht="20.05" customHeight="1">
@@ -9024,7 +9024,7 @@
         <v>636</v>
       </c>
       <c r="C606" t="s" s="5">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="607" ht="20.05" customHeight="1">
@@ -9033,7 +9033,7 @@
         <v>637</v>
       </c>
       <c r="C607" t="s" s="5">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="608" ht="20.05" customHeight="1">
@@ -9051,7 +9051,7 @@
         <v>639</v>
       </c>
       <c r="C609" t="s" s="5">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="610" ht="20.05" customHeight="1">
@@ -9060,7 +9060,7 @@
         <v>640</v>
       </c>
       <c r="C610" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="611" ht="20.05" customHeight="1">
@@ -9087,7 +9087,7 @@
         <v>643</v>
       </c>
       <c r="C613" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="614" ht="20.05" customHeight="1">
@@ -9096,7 +9096,7 @@
         <v>644</v>
       </c>
       <c r="C614" t="s" s="5">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="615" ht="20.05" customHeight="1">
@@ -9114,7 +9114,7 @@
         <v>646</v>
       </c>
       <c r="C616" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="617" ht="20.05" customHeight="1">
@@ -9123,7 +9123,7 @@
         <v>647</v>
       </c>
       <c r="C617" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="618" ht="20.05" customHeight="1">
@@ -9141,7 +9141,7 @@
         <v>649</v>
       </c>
       <c r="C619" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="620" ht="20.05" customHeight="1">
@@ -9168,7 +9168,7 @@
         <v>653</v>
       </c>
       <c r="C622" t="s" s="5">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="623" ht="20.05" customHeight="1">
@@ -9186,7 +9186,7 @@
         <v>655</v>
       </c>
       <c r="C624" t="s" s="5">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="625" ht="20.05" customHeight="1">
@@ -9195,7 +9195,7 @@
         <v>656</v>
       </c>
       <c r="C625" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="626" ht="20.05" customHeight="1">
@@ -9204,7 +9204,7 @@
         <v>657</v>
       </c>
       <c r="C626" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="627" ht="20.05" customHeight="1">
@@ -9213,7 +9213,7 @@
         <v>658</v>
       </c>
       <c r="C627" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="628" ht="20.05" customHeight="1">
@@ -9222,7 +9222,7 @@
         <v>659</v>
       </c>
       <c r="C628" t="s" s="5">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="629" ht="20.05" customHeight="1">
@@ -9231,7 +9231,7 @@
         <v>660</v>
       </c>
       <c r="C629" t="s" s="5">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="630" ht="20.05" customHeight="1">
@@ -9240,7 +9240,7 @@
         <v>661</v>
       </c>
       <c r="C630" t="s" s="5">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="631" ht="20.05" customHeight="1">
@@ -9258,7 +9258,7 @@
         <v>663</v>
       </c>
       <c r="C632" t="s" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="633" ht="20.05" customHeight="1">
@@ -9267,7 +9267,7 @@
         <v>664</v>
       </c>
       <c r="C633" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="634" ht="20.05" customHeight="1">
@@ -9276,7 +9276,7 @@
         <v>665</v>
       </c>
       <c r="C634" t="s" s="5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="635" ht="20.05" customHeight="1">
@@ -9294,7 +9294,7 @@
         <v>668</v>
       </c>
       <c r="C636" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="637" ht="20.05" customHeight="1">
@@ -9303,7 +9303,7 @@
         <v>669</v>
       </c>
       <c r="C637" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="638" ht="20.05" customHeight="1">
@@ -9312,7 +9312,7 @@
         <v>670</v>
       </c>
       <c r="C638" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="639" ht="20.05" customHeight="1">
@@ -9321,7 +9321,7 @@
         <v>671</v>
       </c>
       <c r="C639" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="640" ht="20.05" customHeight="1">
@@ -9339,7 +9339,7 @@
         <v>673</v>
       </c>
       <c r="C641" t="s" s="5">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="642" ht="20.05" customHeight="1">
@@ -9357,7 +9357,7 @@
         <v>675</v>
       </c>
       <c r="C643" t="s" s="5">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="644" ht="20.05" customHeight="1">
@@ -9366,7 +9366,7 @@
         <v>676</v>
       </c>
       <c r="C644" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="645" ht="20.05" customHeight="1">
@@ -9375,7 +9375,7 @@
         <v>677</v>
       </c>
       <c r="C645" t="s" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="646" ht="20.05" customHeight="1">
@@ -9393,7 +9393,7 @@
         <v>679</v>
       </c>
       <c r="C647" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="648" ht="20.05" customHeight="1">
@@ -9402,7 +9402,7 @@
         <v>680</v>
       </c>
       <c r="C648" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="649" ht="20.05" customHeight="1">
@@ -9420,7 +9420,7 @@
         <v>682</v>
       </c>
       <c r="C650" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="651" ht="20.05" customHeight="1">
@@ -9429,7 +9429,7 @@
         <v>683</v>
       </c>
       <c r="C651" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="652" ht="20.05" customHeight="1">
@@ -9474,7 +9474,7 @@
         <v>689</v>
       </c>
       <c r="C656" t="s" s="5">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="657" ht="20.05" customHeight="1">
@@ -9492,7 +9492,7 @@
         <v>691</v>
       </c>
       <c r="C658" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="659" ht="20.05" customHeight="1">
@@ -9501,7 +9501,7 @@
         <v>692</v>
       </c>
       <c r="C659" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="660" ht="20.05" customHeight="1">
@@ -9510,7 +9510,7 @@
         <v>693</v>
       </c>
       <c r="C660" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="661" ht="20.05" customHeight="1">
@@ -9519,7 +9519,7 @@
         <v>694</v>
       </c>
       <c r="C661" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="662" ht="20.05" customHeight="1">
@@ -9528,7 +9528,7 @@
         <v>695</v>
       </c>
       <c r="C662" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="663" ht="20.05" customHeight="1">
@@ -9537,7 +9537,7 @@
         <v>696</v>
       </c>
       <c r="C663" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="664" ht="20.05" customHeight="1">
@@ -9546,7 +9546,7 @@
         <v>697</v>
       </c>
       <c r="C664" t="s" s="5">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="665" ht="20.05" customHeight="1">
@@ -9555,7 +9555,7 @@
         <v>698</v>
       </c>
       <c r="C665" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="666" ht="20.05" customHeight="1">
@@ -9573,13 +9573,13 @@
         <v>701</v>
       </c>
       <c r="C667" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="668" ht="20.05" customHeight="1">
       <c r="A668" s="12"/>
       <c r="B668" t="s" s="4">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C668" t="s" s="5">
         <v>4</v>
@@ -9588,10 +9588,10 @@
     <row r="669" ht="20.05" customHeight="1">
       <c r="A669" s="12"/>
       <c r="B669" t="s" s="4">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C669" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="670" ht="20.05" customHeight="1">
@@ -9627,7 +9627,7 @@
         <v>705</v>
       </c>
       <c r="C673" t="s" s="5">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="674" ht="20.05" customHeight="1">
@@ -9636,7 +9636,7 @@
         <v>706</v>
       </c>
       <c r="C674" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="675" ht="20.05" customHeight="1">
@@ -9654,7 +9654,7 @@
         <v>708</v>
       </c>
       <c r="C676" t="s" s="5">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="677" ht="20.05" customHeight="1">
@@ -9663,7 +9663,7 @@
         <v>709</v>
       </c>
       <c r="C677" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="678" ht="20.05" customHeight="1">
@@ -9672,7 +9672,7 @@
         <v>710</v>
       </c>
       <c r="C678" t="s" s="5">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="679" ht="20.05" customHeight="1">
@@ -9681,7 +9681,7 @@
         <v>711</v>
       </c>
       <c r="C679" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="680" ht="20.05" customHeight="1">
@@ -9690,7 +9690,7 @@
         <v>712</v>
       </c>
       <c r="C680" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="681" ht="20.05" customHeight="1">
@@ -9735,7 +9735,7 @@
         <v>717</v>
       </c>
       <c r="C685" t="s" s="5">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="686" ht="20.05" customHeight="1">
@@ -9744,7 +9744,7 @@
         <v>718</v>
       </c>
       <c r="C686" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="687" ht="20.05" customHeight="1">
@@ -9753,7 +9753,7 @@
         <v>719</v>
       </c>
       <c r="C687" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="688" ht="20.05" customHeight="1">
@@ -9762,7 +9762,7 @@
         <v>720</v>
       </c>
       <c r="C688" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="689" ht="20.05" customHeight="1">
@@ -9771,7 +9771,7 @@
         <v>721</v>
       </c>
       <c r="C689" t="s" s="5">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="690" ht="20.05" customHeight="1">
@@ -9780,7 +9780,7 @@
         <v>722</v>
       </c>
       <c r="C690" t="s" s="5">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="691" ht="20.05" customHeight="1">
@@ -9789,7 +9789,7 @@
         <v>723</v>
       </c>
       <c r="C691" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="692" ht="20.05" customHeight="1">
@@ -9798,7 +9798,7 @@
         <v>724</v>
       </c>
       <c r="C692" t="s" s="5">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="693" ht="20.05" customHeight="1">
@@ -9807,7 +9807,7 @@
         <v>725</v>
       </c>
       <c r="C693" t="s" s="5">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="694" ht="20.05" customHeight="1">
@@ -9816,7 +9816,7 @@
         <v>726</v>
       </c>
       <c r="C694" t="s" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="695" ht="20.05" customHeight="1">
@@ -9825,7 +9825,7 @@
         <v>727</v>
       </c>
       <c r="C695" t="s" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="696" ht="20.05" customHeight="1">
@@ -9834,7 +9834,7 @@
         <v>728</v>
       </c>
       <c r="C696" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="697" ht="20.05" customHeight="1">
@@ -9843,7 +9843,7 @@
         <v>729</v>
       </c>
       <c r="C697" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="698" ht="20.05" customHeight="1">
@@ -9852,7 +9852,7 @@
         <v>730</v>
       </c>
       <c r="C698" t="s" s="5">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="699" ht="20.05" customHeight="1">
@@ -9888,7 +9888,7 @@
         <v>734</v>
       </c>
       <c r="C702" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
